--- a/studios/studio4/Prob2.xlsx
+++ b/studios/studio4/Prob2.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27510"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roncytron/git/cse247-f16-students/studios/studio4/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="400" yWindow="460" windowWidth="16280" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -4869,1540 +4864,1540 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="512"/>
                 <c:pt idx="0">
-                  <c:v>4000.0</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8000.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12000.0</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16000.0</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20000.0</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24000.0</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28000.0</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32000.0</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36000.0</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40000.0</c:v>
+                  <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44000.0</c:v>
+                  <c:v>214.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48000.0</c:v>
+                  <c:v>257.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52000.0</c:v>
+                  <c:v>304.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>56000.0</c:v>
+                  <c:v>355.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>60000.0</c:v>
+                  <c:v>410.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>64000.0</c:v>
+                  <c:v>469.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>68000.0</c:v>
+                  <c:v>532.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72000.0</c:v>
+                  <c:v>599.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>76000.0</c:v>
+                  <c:v>670.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>80000.0</c:v>
+                  <c:v>745.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84000.0</c:v>
+                  <c:v>824.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>88000.0</c:v>
+                  <c:v>907.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92000.0</c:v>
+                  <c:v>994.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>96000.0</c:v>
+                  <c:v>1085.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100000.0</c:v>
+                  <c:v>1180.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>104000.0</c:v>
+                  <c:v>1279.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>108000.0</c:v>
+                  <c:v>1382.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>112000.0</c:v>
+                  <c:v>1489.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>116000.0</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>120000.0</c:v>
+                  <c:v>1715.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>124000.0</c:v>
+                  <c:v>1834.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>128000.0</c:v>
+                  <c:v>1957.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>132000.0</c:v>
+                  <c:v>2084.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>136000.0</c:v>
+                  <c:v>2215.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>140000.0</c:v>
+                  <c:v>2350.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>144000.0</c:v>
+                  <c:v>2489.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>148000.0</c:v>
+                  <c:v>2632.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>152000.0</c:v>
+                  <c:v>2779.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>156000.0</c:v>
+                  <c:v>2930.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>160000.0</c:v>
+                  <c:v>3085.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>164000.0</c:v>
+                  <c:v>3244.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>168000.0</c:v>
+                  <c:v>3407.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>172000.0</c:v>
+                  <c:v>3574.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>176000.0</c:v>
+                  <c:v>3745.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>180000.0</c:v>
+                  <c:v>3920.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>184000.0</c:v>
+                  <c:v>4099.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>188000.0</c:v>
+                  <c:v>4282.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>192000.0</c:v>
+                  <c:v>4469.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>196000.0</c:v>
+                  <c:v>4660.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>200000.0</c:v>
+                  <c:v>4855.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>204000.0</c:v>
+                  <c:v>5054.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>208000.0</c:v>
+                  <c:v>5257.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>212000.0</c:v>
+                  <c:v>5464.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>216000.0</c:v>
+                  <c:v>5675.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>220000.0</c:v>
+                  <c:v>5890.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>224000.0</c:v>
+                  <c:v>6109.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>228000.0</c:v>
+                  <c:v>6332.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>232000.0</c:v>
+                  <c:v>6559.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>236000.0</c:v>
+                  <c:v>6790.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>240000.0</c:v>
+                  <c:v>7025.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>244000.0</c:v>
+                  <c:v>7264.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>248000.0</c:v>
+                  <c:v>7507.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>252000.0</c:v>
+                  <c:v>7754.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>256000.0</c:v>
+                  <c:v>8005.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>260000.0</c:v>
+                  <c:v>8260.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>264000.0</c:v>
+                  <c:v>8519.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>268000.0</c:v>
+                  <c:v>8782.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>272000.0</c:v>
+                  <c:v>9049.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>276000.0</c:v>
+                  <c:v>9320.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>280000.0</c:v>
+                  <c:v>9595.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>284000.0</c:v>
+                  <c:v>9874.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>288000.0</c:v>
+                  <c:v>10157.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>292000.0</c:v>
+                  <c:v>10444.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>296000.0</c:v>
+                  <c:v>10735.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>300000.0</c:v>
+                  <c:v>11030.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>304000.0</c:v>
+                  <c:v>11329.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>308000.0</c:v>
+                  <c:v>11632.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>312000.0</c:v>
+                  <c:v>11939.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>316000.0</c:v>
+                  <c:v>12250.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>320000.0</c:v>
+                  <c:v>12565.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>324000.0</c:v>
+                  <c:v>12884.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>328000.0</c:v>
+                  <c:v>13207.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>332000.0</c:v>
+                  <c:v>13534.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>336000.0</c:v>
+                  <c:v>13865.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>340000.0</c:v>
+                  <c:v>14200.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>344000.0</c:v>
+                  <c:v>14539.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>348000.0</c:v>
+                  <c:v>14882.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>352000.0</c:v>
+                  <c:v>15229.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>356000.0</c:v>
+                  <c:v>15580.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>360000.0</c:v>
+                  <c:v>15935.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>364000.0</c:v>
+                  <c:v>16294.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>368000.0</c:v>
+                  <c:v>16657.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>372000.0</c:v>
+                  <c:v>17024.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>376000.0</c:v>
+                  <c:v>17395.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>380000.0</c:v>
+                  <c:v>17770.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>384000.0</c:v>
+                  <c:v>18149.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>388000.0</c:v>
+                  <c:v>18532.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>392000.0</c:v>
+                  <c:v>18919.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>396000.0</c:v>
+                  <c:v>19310.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>400000.0</c:v>
+                  <c:v>19705.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>404000.0</c:v>
+                  <c:v>20104.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>408000.0</c:v>
+                  <c:v>20507.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>412000.0</c:v>
+                  <c:v>20914.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>416000.0</c:v>
+                  <c:v>21325.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>420000.0</c:v>
+                  <c:v>21740.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>424000.0</c:v>
+                  <c:v>22159.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>428000.0</c:v>
+                  <c:v>22582.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>432000.0</c:v>
+                  <c:v>23009.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>436000.0</c:v>
+                  <c:v>23440.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>440000.0</c:v>
+                  <c:v>23875.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>444000.0</c:v>
+                  <c:v>24314.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>448000.0</c:v>
+                  <c:v>24757.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>452000.0</c:v>
+                  <c:v>25204.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>456000.0</c:v>
+                  <c:v>25655.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>460000.0</c:v>
+                  <c:v>26110.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>464000.0</c:v>
+                  <c:v>26569.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>468000.0</c:v>
+                  <c:v>27032.0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>472000.0</c:v>
+                  <c:v>27499.0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>476000.0</c:v>
+                  <c:v>27970.0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>480000.0</c:v>
+                  <c:v>28445.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>484000.0</c:v>
+                  <c:v>28924.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>488000.0</c:v>
+                  <c:v>29407.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>492000.0</c:v>
+                  <c:v>29894.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>496000.0</c:v>
+                  <c:v>30385.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>500000.0</c:v>
+                  <c:v>30880.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>504000.0</c:v>
+                  <c:v>31379.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>508000.0</c:v>
+                  <c:v>31882.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>512000.0</c:v>
+                  <c:v>32389.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>516000.0</c:v>
+                  <c:v>32900.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>520000.0</c:v>
+                  <c:v>33415.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>524000.0</c:v>
+                  <c:v>33934.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>528000.0</c:v>
+                  <c:v>34457.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>532000.0</c:v>
+                  <c:v>34984.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>536000.0</c:v>
+                  <c:v>35515.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>540000.0</c:v>
+                  <c:v>36050.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>544000.0</c:v>
+                  <c:v>36589.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>548000.0</c:v>
+                  <c:v>37132.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>552000.0</c:v>
+                  <c:v>37679.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>556000.0</c:v>
+                  <c:v>38230.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>560000.0</c:v>
+                  <c:v>38785.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>564000.0</c:v>
+                  <c:v>39344.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>568000.0</c:v>
+                  <c:v>39907.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>572000.0</c:v>
+                  <c:v>40474.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>576000.0</c:v>
+                  <c:v>41045.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>580000.0</c:v>
+                  <c:v>41620.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>584000.0</c:v>
+                  <c:v>42199.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>588000.0</c:v>
+                  <c:v>42782.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>592000.0</c:v>
+                  <c:v>43369.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>596000.0</c:v>
+                  <c:v>43960.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>600000.0</c:v>
+                  <c:v>44555.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>604000.0</c:v>
+                  <c:v>45154.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>608000.0</c:v>
+                  <c:v>45757.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>612000.0</c:v>
+                  <c:v>46364.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>616000.0</c:v>
+                  <c:v>46975.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>620000.0</c:v>
+                  <c:v>47590.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>624000.0</c:v>
+                  <c:v>48209.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>628000.0</c:v>
+                  <c:v>48832.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>632000.0</c:v>
+                  <c:v>49459.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>636000.0</c:v>
+                  <c:v>50090.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>640000.0</c:v>
+                  <c:v>50725.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>644000.0</c:v>
+                  <c:v>51364.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>648000.0</c:v>
+                  <c:v>52007.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>652000.0</c:v>
+                  <c:v>52654.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>656000.0</c:v>
+                  <c:v>53305.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>660000.0</c:v>
+                  <c:v>53960.0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>664000.0</c:v>
+                  <c:v>54619.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>668000.0</c:v>
+                  <c:v>55282.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>672000.0</c:v>
+                  <c:v>55949.0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>676000.0</c:v>
+                  <c:v>56620.0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>680000.0</c:v>
+                  <c:v>57295.0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>684000.0</c:v>
+                  <c:v>57974.0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>688000.0</c:v>
+                  <c:v>58657.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>692000.0</c:v>
+                  <c:v>59344.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>696000.0</c:v>
+                  <c:v>60035.0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>700000.0</c:v>
+                  <c:v>60730.0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>704000.0</c:v>
+                  <c:v>61429.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>708000.0</c:v>
+                  <c:v>62132.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>712000.0</c:v>
+                  <c:v>62839.0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>716000.0</c:v>
+                  <c:v>63550.0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>720000.0</c:v>
+                  <c:v>64265.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>724000.0</c:v>
+                  <c:v>64984.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>728000.0</c:v>
+                  <c:v>65707.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>732000.0</c:v>
+                  <c:v>66434.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>736000.0</c:v>
+                  <c:v>67165.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>740000.0</c:v>
+                  <c:v>67900.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>744000.0</c:v>
+                  <c:v>68639.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>748000.0</c:v>
+                  <c:v>69382.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>752000.0</c:v>
+                  <c:v>70129.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>756000.0</c:v>
+                  <c:v>70880.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>760000.0</c:v>
+                  <c:v>71635.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>764000.0</c:v>
+                  <c:v>72394.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>768000.0</c:v>
+                  <c:v>73157.0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>772000.0</c:v>
+                  <c:v>73924.0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>776000.0</c:v>
+                  <c:v>74695.0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>780000.0</c:v>
+                  <c:v>75470.0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>784000.0</c:v>
+                  <c:v>76249.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>788000.0</c:v>
+                  <c:v>77032.0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>792000.0</c:v>
+                  <c:v>77819.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>796000.0</c:v>
+                  <c:v>78610.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>800000.0</c:v>
+                  <c:v>79405.0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>804000.0</c:v>
+                  <c:v>80204.0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>808000.0</c:v>
+                  <c:v>81007.0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>812000.0</c:v>
+                  <c:v>81814.0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>816000.0</c:v>
+                  <c:v>82625.0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>820000.0</c:v>
+                  <c:v>83440.0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>824000.0</c:v>
+                  <c:v>84259.0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>828000.0</c:v>
+                  <c:v>85082.0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>832000.0</c:v>
+                  <c:v>85909.0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>836000.0</c:v>
+                  <c:v>86740.0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>840000.0</c:v>
+                  <c:v>87575.0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>844000.0</c:v>
+                  <c:v>88414.0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>848000.0</c:v>
+                  <c:v>89257.0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>852000.0</c:v>
+                  <c:v>90104.0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>856000.0</c:v>
+                  <c:v>90955.0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>860000.0</c:v>
+                  <c:v>91810.0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>864000.0</c:v>
+                  <c:v>92669.0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>868000.0</c:v>
+                  <c:v>93532.0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>872000.0</c:v>
+                  <c:v>94399.0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>876000.0</c:v>
+                  <c:v>95270.0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>880000.0</c:v>
+                  <c:v>96145.0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>884000.0</c:v>
+                  <c:v>97024.0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>888000.0</c:v>
+                  <c:v>97907.0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>892000.0</c:v>
+                  <c:v>98794.0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>896000.0</c:v>
+                  <c:v>99685.0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>900000.0</c:v>
+                  <c:v>100580.0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>904000.0</c:v>
+                  <c:v>101479.0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>908000.0</c:v>
+                  <c:v>102382.0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>912000.0</c:v>
+                  <c:v>103289.0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>916000.0</c:v>
+                  <c:v>104200.0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>920000.0</c:v>
+                  <c:v>105115.0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>924000.0</c:v>
+                  <c:v>106034.0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>928000.0</c:v>
+                  <c:v>106957.0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>932000.0</c:v>
+                  <c:v>107884.0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>936000.0</c:v>
+                  <c:v>108815.0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>940000.0</c:v>
+                  <c:v>109750.0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>944000.0</c:v>
+                  <c:v>110689.0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>948000.0</c:v>
+                  <c:v>111632.0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>952000.0</c:v>
+                  <c:v>112579.0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>956000.0</c:v>
+                  <c:v>113530.0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>960000.0</c:v>
+                  <c:v>114485.0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>964000.0</c:v>
+                  <c:v>115444.0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>968000.0</c:v>
+                  <c:v>116407.0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>972000.0</c:v>
+                  <c:v>117374.0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>976000.0</c:v>
+                  <c:v>118345.0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>980000.0</c:v>
+                  <c:v>119320.0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>984000.0</c:v>
+                  <c:v>120299.0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>988000.0</c:v>
+                  <c:v>121282.0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>992000.0</c:v>
+                  <c:v>122269.0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>996000.0</c:v>
+                  <c:v>123260.0</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>1.0E6</c:v>
+                  <c:v>124255.0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>1.004E6</c:v>
+                  <c:v>125254.0</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>1.008E6</c:v>
+                  <c:v>126257.0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>1.012E6</c:v>
+                  <c:v>127264.0</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>1.016E6</c:v>
+                  <c:v>128275.0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>1.02E6</c:v>
+                  <c:v>129290.0</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>1.024E6</c:v>
+                  <c:v>130309.0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>1.028E6</c:v>
+                  <c:v>131332.0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>1.032E6</c:v>
+                  <c:v>132359.0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>1.036E6</c:v>
+                  <c:v>133390.0</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>1.04E6</c:v>
+                  <c:v>134425.0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>1.044E6</c:v>
+                  <c:v>135464.0</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>1.048E6</c:v>
+                  <c:v>136507.0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>1.052E6</c:v>
+                  <c:v>137554.0</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>1.056E6</c:v>
+                  <c:v>138605.0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>1.06E6</c:v>
+                  <c:v>139660.0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>1.064E6</c:v>
+                  <c:v>140719.0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>1.068E6</c:v>
+                  <c:v>141782.0</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>1.072E6</c:v>
+                  <c:v>142849.0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>1.076E6</c:v>
+                  <c:v>143920.0</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>1.08E6</c:v>
+                  <c:v>144995.0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>1.084E6</c:v>
+                  <c:v>146074.0</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>1.088E6</c:v>
+                  <c:v>147157.0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>1.092E6</c:v>
+                  <c:v>148244.0</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>1.096E6</c:v>
+                  <c:v>149335.0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>1.1E6</c:v>
+                  <c:v>150430.0</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>1.104E6</c:v>
+                  <c:v>151529.0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>1.108E6</c:v>
+                  <c:v>152632.0</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>1.112E6</c:v>
+                  <c:v>153739.0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>1.116E6</c:v>
+                  <c:v>154850.0</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>1.12E6</c:v>
+                  <c:v>155965.0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>1.124E6</c:v>
+                  <c:v>157084.0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>1.128E6</c:v>
+                  <c:v>158207.0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>1.132E6</c:v>
+                  <c:v>159334.0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>1.136E6</c:v>
+                  <c:v>160465.0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>1.14E6</c:v>
+                  <c:v>161600.0</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>1.144E6</c:v>
+                  <c:v>162739.0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>1.148E6</c:v>
+                  <c:v>163882.0</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>1.152E6</c:v>
+                  <c:v>165029.0</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>1.156E6</c:v>
+                  <c:v>166180.0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>1.16E6</c:v>
+                  <c:v>167335.0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>1.164E6</c:v>
+                  <c:v>168494.0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>1.168E6</c:v>
+                  <c:v>169657.0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>1.172E6</c:v>
+                  <c:v>170824.0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>1.176E6</c:v>
+                  <c:v>171995.0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>1.18E6</c:v>
+                  <c:v>173170.0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>1.184E6</c:v>
+                  <c:v>174349.0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>1.188E6</c:v>
+                  <c:v>175532.0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>1.192E6</c:v>
+                  <c:v>176719.0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>1.196E6</c:v>
+                  <c:v>177910.0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>1.2E6</c:v>
+                  <c:v>179105.0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>1.204E6</c:v>
+                  <c:v>180304.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>1.208E6</c:v>
+                  <c:v>181507.0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>1.212E6</c:v>
+                  <c:v>182714.0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>1.216E6</c:v>
+                  <c:v>183925.0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>1.22E6</c:v>
+                  <c:v>185140.0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>1.224E6</c:v>
+                  <c:v>186359.0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>1.228E6</c:v>
+                  <c:v>187582.0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>1.232E6</c:v>
+                  <c:v>188809.0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>1.236E6</c:v>
+                  <c:v>190040.0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>1.24E6</c:v>
+                  <c:v>191275.0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>1.244E6</c:v>
+                  <c:v>192514.0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>1.248E6</c:v>
+                  <c:v>193757.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>1.252E6</c:v>
+                  <c:v>195004.0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>1.256E6</c:v>
+                  <c:v>196255.0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>1.26E6</c:v>
+                  <c:v>197510.0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>1.264E6</c:v>
+                  <c:v>198769.0</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>1.268E6</c:v>
+                  <c:v>200032.0</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>1.272E6</c:v>
+                  <c:v>201299.0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>1.276E6</c:v>
+                  <c:v>202570.0</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1.28E6</c:v>
+                  <c:v>203845.0</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>1.284E6</c:v>
+                  <c:v>205124.0</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>1.288E6</c:v>
+                  <c:v>206407.0</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>1.292E6</c:v>
+                  <c:v>207694.0</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>1.296E6</c:v>
+                  <c:v>208985.0</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>1.3E6</c:v>
+                  <c:v>210280.0</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>1.304E6</c:v>
+                  <c:v>211579.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>1.308E6</c:v>
+                  <c:v>212882.0</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>1.312E6</c:v>
+                  <c:v>214189.0</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>1.316E6</c:v>
+                  <c:v>215500.0</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>1.32E6</c:v>
+                  <c:v>216815.0</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>1.324E6</c:v>
+                  <c:v>218134.0</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>1.328E6</c:v>
+                  <c:v>219457.0</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>1.332E6</c:v>
+                  <c:v>220784.0</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>1.336E6</c:v>
+                  <c:v>222115.0</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>1.34E6</c:v>
+                  <c:v>223450.0</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>1.344E6</c:v>
+                  <c:v>224789.0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>1.348E6</c:v>
+                  <c:v>226132.0</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>1.352E6</c:v>
+                  <c:v>227479.0</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>1.356E6</c:v>
+                  <c:v>228830.0</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>1.36E6</c:v>
+                  <c:v>230185.0</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>1.364E6</c:v>
+                  <c:v>231544.0</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>1.368E6</c:v>
+                  <c:v>232907.0</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>1.372E6</c:v>
+                  <c:v>234274.0</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>1.376E6</c:v>
+                  <c:v>235645.0</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>1.38E6</c:v>
+                  <c:v>237020.0</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>1.384E6</c:v>
+                  <c:v>238399.0</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>1.388E6</c:v>
+                  <c:v>239782.0</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>1.392E6</c:v>
+                  <c:v>241169.0</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>1.396E6</c:v>
+                  <c:v>242560.0</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>1.4E6</c:v>
+                  <c:v>243955.0</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>1.404E6</c:v>
+                  <c:v>245354.0</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>1.408E6</c:v>
+                  <c:v>246757.0</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>1.412E6</c:v>
+                  <c:v>248164.0</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>1.416E6</c:v>
+                  <c:v>249575.0</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>1.42E6</c:v>
+                  <c:v>250990.0</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>1.424E6</c:v>
+                  <c:v>252409.0</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>1.428E6</c:v>
+                  <c:v>253832.0</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>1.432E6</c:v>
+                  <c:v>255259.0</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>1.436E6</c:v>
+                  <c:v>256690.0</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>1.44E6</c:v>
+                  <c:v>258125.0</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>1.444E6</c:v>
+                  <c:v>259564.0</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>1.448E6</c:v>
+                  <c:v>261007.0</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>1.452E6</c:v>
+                  <c:v>262454.0</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>1.456E6</c:v>
+                  <c:v>263905.0</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>1.46E6</c:v>
+                  <c:v>265360.0</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>1.464E6</c:v>
+                  <c:v>266819.0</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>1.468E6</c:v>
+                  <c:v>268282.0</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>1.472E6</c:v>
+                  <c:v>269749.0</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>1.476E6</c:v>
+                  <c:v>271220.0</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>1.48E6</c:v>
+                  <c:v>272695.0</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>1.484E6</c:v>
+                  <c:v>274174.0</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>1.488E6</c:v>
+                  <c:v>275657.0</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>1.492E6</c:v>
+                  <c:v>277144.0</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>1.496E6</c:v>
+                  <c:v>278635.0</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>1.5E6</c:v>
+                  <c:v>280130.0</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>1.504E6</c:v>
+                  <c:v>281629.0</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>1.508E6</c:v>
+                  <c:v>283132.0</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>1.512E6</c:v>
+                  <c:v>284639.0</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>1.516E6</c:v>
+                  <c:v>286150.0</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>1.52E6</c:v>
+                  <c:v>287665.0</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>1.524E6</c:v>
+                  <c:v>289184.0</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>1.528E6</c:v>
+                  <c:v>290707.0</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>1.532E6</c:v>
+                  <c:v>292234.0</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>1.536E6</c:v>
+                  <c:v>293765.0</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>1.54E6</c:v>
+                  <c:v>295300.0</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>1.544E6</c:v>
+                  <c:v>296839.0</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>1.548E6</c:v>
+                  <c:v>298382.0</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>1.552E6</c:v>
+                  <c:v>299929.0</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>1.556E6</c:v>
+                  <c:v>301480.0</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>1.56E6</c:v>
+                  <c:v>303035.0</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>1.564E6</c:v>
+                  <c:v>304594.0</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>1.568E6</c:v>
+                  <c:v>306157.0</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>1.572E6</c:v>
+                  <c:v>307724.0</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>1.576E6</c:v>
+                  <c:v>309295.0</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>1.58E6</c:v>
+                  <c:v>310870.0</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>1.584E6</c:v>
+                  <c:v>312449.0</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>1.588E6</c:v>
+                  <c:v>314032.0</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>1.592E6</c:v>
+                  <c:v>315619.0</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>1.596E6</c:v>
+                  <c:v>317210.0</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>1.6E6</c:v>
+                  <c:v>318805.0</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>1.604E6</c:v>
+                  <c:v>320404.0</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>1.608E6</c:v>
+                  <c:v>322007.0</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>1.612E6</c:v>
+                  <c:v>323614.0</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>1.616E6</c:v>
+                  <c:v>325225.0</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>1.62E6</c:v>
+                  <c:v>326840.0</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>1.624E6</c:v>
+                  <c:v>328459.0</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>1.628E6</c:v>
+                  <c:v>330082.0</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>1.632E6</c:v>
+                  <c:v>331709.0</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>1.636E6</c:v>
+                  <c:v>333340.0</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>1.64E6</c:v>
+                  <c:v>334975.0</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>1.644E6</c:v>
+                  <c:v>336614.0</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>1.648E6</c:v>
+                  <c:v>338257.0</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>1.652E6</c:v>
+                  <c:v>339904.0</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>1.656E6</c:v>
+                  <c:v>341555.0</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>1.66E6</c:v>
+                  <c:v>343210.0</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>1.664E6</c:v>
+                  <c:v>344869.0</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>1.668E6</c:v>
+                  <c:v>346532.0</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>1.672E6</c:v>
+                  <c:v>348199.0</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>1.676E6</c:v>
+                  <c:v>349870.0</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>1.68E6</c:v>
+                  <c:v>351545.0</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>1.684E6</c:v>
+                  <c:v>353224.0</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>1.688E6</c:v>
+                  <c:v>354907.0</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>1.692E6</c:v>
+                  <c:v>356594.0</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>1.696E6</c:v>
+                  <c:v>358285.0</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>1.7E6</c:v>
+                  <c:v>359980.0</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>1.704E6</c:v>
+                  <c:v>361679.0</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>1.708E6</c:v>
+                  <c:v>363382.0</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>1.712E6</c:v>
+                  <c:v>365089.0</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>1.716E6</c:v>
+                  <c:v>366800.0</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>1.72E6</c:v>
+                  <c:v>368515.0</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>1.724E6</c:v>
+                  <c:v>370234.0</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>1.728E6</c:v>
+                  <c:v>371957.0</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>1.732E6</c:v>
+                  <c:v>373684.0</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>1.736E6</c:v>
+                  <c:v>375415.0</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>1.74E6</c:v>
+                  <c:v>377150.0</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>1.744E6</c:v>
+                  <c:v>378889.0</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>1.748E6</c:v>
+                  <c:v>380632.0</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>1.752E6</c:v>
+                  <c:v>382379.0</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>1.756E6</c:v>
+                  <c:v>384130.0</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>1.76E6</c:v>
+                  <c:v>385885.0</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>1.764E6</c:v>
+                  <c:v>387644.0</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>1.768E6</c:v>
+                  <c:v>389407.0</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>1.772E6</c:v>
+                  <c:v>391174.0</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>1.776E6</c:v>
+                  <c:v>392945.0</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>1.78E6</c:v>
+                  <c:v>394720.0</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>1.784E6</c:v>
+                  <c:v>396499.0</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>1.788E6</c:v>
+                  <c:v>398282.0</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>1.792E6</c:v>
+                  <c:v>400069.0</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>1.796E6</c:v>
+                  <c:v>401860.0</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>1.8E6</c:v>
+                  <c:v>403655.0</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>1.804E6</c:v>
+                  <c:v>405454.0</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>1.808E6</c:v>
+                  <c:v>407257.0</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>1.812E6</c:v>
+                  <c:v>409064.0</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>1.816E6</c:v>
+                  <c:v>410875.0</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>1.82E6</c:v>
+                  <c:v>412690.0</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>1.824E6</c:v>
+                  <c:v>414509.0</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>1.828E6</c:v>
+                  <c:v>416332.0</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>1.832E6</c:v>
+                  <c:v>418159.0</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>1.836E6</c:v>
+                  <c:v>419990.0</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>1.84E6</c:v>
+                  <c:v>421825.0</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>1.844E6</c:v>
+                  <c:v>423664.0</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>1.848E6</c:v>
+                  <c:v>425507.0</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>1.852E6</c:v>
+                  <c:v>427354.0</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>1.856E6</c:v>
+                  <c:v>429205.0</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>1.86E6</c:v>
+                  <c:v>431060.0</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>1.864E6</c:v>
+                  <c:v>432919.0</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>1.868E6</c:v>
+                  <c:v>434782.0</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>1.872E6</c:v>
+                  <c:v>436649.0</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>1.876E6</c:v>
+                  <c:v>438520.0</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>1.88E6</c:v>
+                  <c:v>440395.0</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>1.884E6</c:v>
+                  <c:v>442274.0</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>1.888E6</c:v>
+                  <c:v>444157.0</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>1.892E6</c:v>
+                  <c:v>446044.0</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>1.896E6</c:v>
+                  <c:v>447935.0</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>1.9E6</c:v>
+                  <c:v>449830.0</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>1.904E6</c:v>
+                  <c:v>451729.0</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>1.908E6</c:v>
+                  <c:v>453632.0</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>1.912E6</c:v>
+                  <c:v>455539.0</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>1.916E6</c:v>
+                  <c:v>457450.0</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>1.92E6</c:v>
+                  <c:v>459365.0</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>1.924E6</c:v>
+                  <c:v>461284.0</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>1.928E6</c:v>
+                  <c:v>463207.0</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>1.932E6</c:v>
+                  <c:v>465134.0</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>1.936E6</c:v>
+                  <c:v>467065.0</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>1.94E6</c:v>
+                  <c:v>469000.0</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>1.944E6</c:v>
+                  <c:v>470939.0</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>1.948E6</c:v>
+                  <c:v>472882.0</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>1.952E6</c:v>
+                  <c:v>474829.0</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>1.956E6</c:v>
+                  <c:v>476780.0</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>1.96E6</c:v>
+                  <c:v>478735.0</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>1.964E6</c:v>
+                  <c:v>480694.0</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>1.968E6</c:v>
+                  <c:v>482657.0</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>1.972E6</c:v>
+                  <c:v>484624.0</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>1.976E6</c:v>
+                  <c:v>486595.0</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>1.98E6</c:v>
+                  <c:v>488570.0</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>1.984E6</c:v>
+                  <c:v>490549.0</c:v>
                 </c:pt>
                 <c:pt idx="496">
-                  <c:v>1.988E6</c:v>
+                  <c:v>492532.0</c:v>
                 </c:pt>
                 <c:pt idx="497">
-                  <c:v>1.992E6</c:v>
+                  <c:v>494519.0</c:v>
                 </c:pt>
                 <c:pt idx="498">
-                  <c:v>1.996E6</c:v>
+                  <c:v>496510.0</c:v>
                 </c:pt>
                 <c:pt idx="499">
-                  <c:v>2.0E6</c:v>
+                  <c:v>498505.0</c:v>
                 </c:pt>
                 <c:pt idx="500">
-                  <c:v>2.004E6</c:v>
+                  <c:v>500504.0</c:v>
                 </c:pt>
                 <c:pt idx="501">
-                  <c:v>2.008E6</c:v>
+                  <c:v>502507.0</c:v>
                 </c:pt>
                 <c:pt idx="502">
-                  <c:v>2.012E6</c:v>
+                  <c:v>504514.0</c:v>
                 </c:pt>
                 <c:pt idx="503">
-                  <c:v>2.016E6</c:v>
+                  <c:v>506525.0</c:v>
                 </c:pt>
                 <c:pt idx="504">
-                  <c:v>2.02E6</c:v>
+                  <c:v>508540.0</c:v>
                 </c:pt>
                 <c:pt idx="505">
-                  <c:v>2.024E6</c:v>
+                  <c:v>510559.0</c:v>
                 </c:pt>
                 <c:pt idx="506">
-                  <c:v>2.028E6</c:v>
+                  <c:v>512582.0</c:v>
                 </c:pt>
                 <c:pt idx="507">
-                  <c:v>2.032E6</c:v>
+                  <c:v>514609.0</c:v>
                 </c:pt>
                 <c:pt idx="508">
-                  <c:v>2.036E6</c:v>
+                  <c:v>516640.0</c:v>
                 </c:pt>
                 <c:pt idx="509">
-                  <c:v>2.04E6</c:v>
+                  <c:v>518675.0</c:v>
                 </c:pt>
                 <c:pt idx="510">
-                  <c:v>2.044E6</c:v>
+                  <c:v>520714.0</c:v>
                 </c:pt>
                 <c:pt idx="511">
-                  <c:v>2.048E6</c:v>
+                  <c:v>522757.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6417,11 +6412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-751293408"/>
-        <c:axId val="-751288752"/>
+        <c:axId val="2090974520"/>
+        <c:axId val="2083722664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-751293408"/>
+        <c:axId val="2090974520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6441,6 +6436,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6477,12 +6473,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-751288752"/>
+        <c:crossAx val="2083722664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-751288752"/>
+        <c:axId val="2083722664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6502,6 +6498,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6538,7 +6535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-751293408"/>
+        <c:crossAx val="2090974520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7253,7 +7250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -7288,7 +7285,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -7465,7 +7462,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7476,17 +7473,17 @@
   <dimension ref="A1:F513"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2:D513"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="64">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7503,7 +7500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -7516,11 +7513,11 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <f>4000*A2</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <f>2*A2*A2-3*A2+5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -7529,15 +7526,15 @@
         <v>$C$2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C60" ca="1" si="1">1*INDIRECT(B3)+4*A3-5</f>
+        <f t="shared" ref="C3:C28" ca="1" si="1">1*INDIRECT(B3)+4*A3-5</f>
         <v>7</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="2">4000*A3</f>
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D3:D66" si="2">2*A3*A3-3*A3+5</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -7551,10 +7548,10 @@
       </c>
       <c r="D4">
         <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -7568,10 +7565,10 @@
       </c>
       <c r="D5">
         <f t="shared" si="2"/>
-        <v>16000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -7585,10 +7582,10 @@
       </c>
       <c r="D6">
         <f t="shared" si="2"/>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -7602,10 +7599,10 @@
       </c>
       <c r="D7">
         <f t="shared" si="2"/>
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -7619,10 +7616,10 @@
       </c>
       <c r="D8">
         <f t="shared" si="2"/>
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -7636,10 +7633,10 @@
       </c>
       <c r="D9">
         <f t="shared" si="2"/>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -7653,10 +7650,10 @@
       </c>
       <c r="D10">
         <f t="shared" si="2"/>
-        <v>36000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -7670,10 +7667,10 @@
       </c>
       <c r="D11">
         <f t="shared" si="2"/>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7687,10 +7684,10 @@
       </c>
       <c r="D12">
         <f t="shared" si="2"/>
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -7704,10 +7701,10 @@
       </c>
       <c r="D13">
         <f t="shared" si="2"/>
-        <v>48000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -7721,10 +7718,10 @@
       </c>
       <c r="D14">
         <f t="shared" si="2"/>
-        <v>52000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -7738,10 +7735,10 @@
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>56000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -7755,10 +7752,10 @@
       </c>
       <c r="D16">
         <f t="shared" si="2"/>
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -7772,10 +7769,10 @@
       </c>
       <c r="D17">
         <f t="shared" si="2"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -7789,10 +7786,10 @@
       </c>
       <c r="D18">
         <f t="shared" si="2"/>
-        <v>68000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -7806,10 +7803,10 @@
       </c>
       <c r="D19">
         <f t="shared" si="2"/>
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -7823,10 +7820,10 @@
       </c>
       <c r="D20">
         <f t="shared" si="2"/>
-        <v>76000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -7840,10 +7837,10 @@
       </c>
       <c r="D21">
         <f t="shared" si="2"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -7857,10 +7854,10 @@
       </c>
       <c r="D22">
         <f t="shared" si="2"/>
-        <v>84000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -7874,10 +7871,10 @@
       </c>
       <c r="D23">
         <f t="shared" si="2"/>
-        <v>88000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -7891,10 +7888,10 @@
       </c>
       <c r="D24">
         <f t="shared" si="2"/>
-        <v>92000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -7908,10 +7905,10 @@
       </c>
       <c r="D25">
         <f t="shared" si="2"/>
-        <v>96000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -7925,10 +7922,10 @@
       </c>
       <c r="D26">
         <f t="shared" si="2"/>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -7942,10 +7939,10 @@
       </c>
       <c r="D27">
         <f t="shared" si="2"/>
-        <v>104000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -7959,10 +7956,10 @@
       </c>
       <c r="D28">
         <f t="shared" si="2"/>
-        <v>108000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -7971,15 +7968,15 @@
         <v>$C$28</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C3:C66" ca="1" si="3">1*INDIRECT(B29)+4*A29-7</f>
+        <f t="shared" ref="C29:C66" ca="1" si="3">1*INDIRECT(B29)+4*A29-7</f>
         <v>1487</v>
       </c>
       <c r="D29">
         <f t="shared" si="2"/>
-        <v>112000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -7993,10 +7990,10 @@
       </c>
       <c r="D30">
         <f t="shared" si="2"/>
-        <v>116000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -8010,10 +8007,10 @@
       </c>
       <c r="D31">
         <f t="shared" si="2"/>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -8027,10 +8024,10 @@
       </c>
       <c r="D32">
         <f t="shared" si="2"/>
-        <v>124000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -8044,10 +8041,10 @@
       </c>
       <c r="D33">
         <f t="shared" si="2"/>
-        <v>128000</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -8061,10 +8058,10 @@
       </c>
       <c r="D34">
         <f t="shared" si="2"/>
-        <v>132000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -8078,10 +8075,10 @@
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>136000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -8095,10 +8092,10 @@
       </c>
       <c r="D36">
         <f t="shared" si="2"/>
-        <v>140000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -8112,10 +8109,10 @@
       </c>
       <c r="D37">
         <f t="shared" si="2"/>
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2489</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -8129,10 +8126,10 @@
       </c>
       <c r="D38">
         <f t="shared" si="2"/>
-        <v>148000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -8146,10 +8143,10 @@
       </c>
       <c r="D39">
         <f t="shared" si="2"/>
-        <v>152000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -8163,10 +8160,10 @@
       </c>
       <c r="D40">
         <f t="shared" si="2"/>
-        <v>156000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -8180,10 +8177,10 @@
       </c>
       <c r="D41">
         <f t="shared" si="2"/>
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3085</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -8197,10 +8194,10 @@
       </c>
       <c r="D42">
         <f t="shared" si="2"/>
-        <v>164000</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3244</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -8214,10 +8211,10 @@
       </c>
       <c r="D43">
         <f t="shared" si="2"/>
-        <v>168000</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8231,10 +8228,10 @@
       </c>
       <c r="D44">
         <f t="shared" si="2"/>
-        <v>172000</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8248,10 +8245,10 @@
       </c>
       <c r="D45">
         <f t="shared" si="2"/>
-        <v>176000</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8265,10 +8262,10 @@
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>180000</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8282,10 +8279,10 @@
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>184000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4099</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8299,10 +8296,10 @@
       </c>
       <c r="D48">
         <f t="shared" si="2"/>
-        <v>188000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4282</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8316,10 +8313,10 @@
       </c>
       <c r="D49">
         <f t="shared" si="2"/>
-        <v>192000</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4469</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8333,10 +8330,10 @@
       </c>
       <c r="D50">
         <f t="shared" si="2"/>
-        <v>196000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -8350,10 +8347,10 @@
       </c>
       <c r="D51">
         <f t="shared" si="2"/>
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4855</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -8367,10 +8364,10 @@
       </c>
       <c r="D52">
         <f t="shared" si="2"/>
-        <v>204000</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5054</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -8384,10 +8381,10 @@
       </c>
       <c r="D53">
         <f t="shared" si="2"/>
-        <v>208000</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -8401,10 +8398,10 @@
       </c>
       <c r="D54">
         <f t="shared" si="2"/>
-        <v>212000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5464</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -8418,10 +8415,10 @@
       </c>
       <c r="D55">
         <f t="shared" si="2"/>
-        <v>216000</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5675</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -8435,10 +8432,10 @@
       </c>
       <c r="D56">
         <f t="shared" si="2"/>
-        <v>220000</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8452,10 +8449,10 @@
       </c>
       <c r="D57">
         <f t="shared" si="2"/>
-        <v>224000</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8469,10 +8466,10 @@
       </c>
       <c r="D58">
         <f t="shared" si="2"/>
-        <v>228000</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8486,10 +8483,10 @@
       </c>
       <c r="D59">
         <f t="shared" si="2"/>
-        <v>232000</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6559</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8503,10 +8500,10 @@
       </c>
       <c r="D60">
         <f t="shared" si="2"/>
-        <v>236000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+        <v>6790</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8520,10 +8517,10 @@
       </c>
       <c r="D61">
         <f t="shared" si="2"/>
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8537,10 +8534,10 @@
       </c>
       <c r="D62">
         <f t="shared" si="2"/>
-        <v>244000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8554,10 +8551,10 @@
       </c>
       <c r="D63">
         <f t="shared" si="2"/>
-        <v>248000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7507</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8571,10 +8568,10 @@
       </c>
       <c r="D64">
         <f t="shared" si="2"/>
-        <v>252000</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+        <v>7754</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8588,10 +8585,10 @@
       </c>
       <c r="D65">
         <f t="shared" si="2"/>
-        <v>256000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8605,10 +8602,10 @@
       </c>
       <c r="D66">
         <f t="shared" si="2"/>
-        <v>260000</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8260</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -8621,11 +8618,11 @@
         <v>8441</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="6">4000*A67</f>
-        <v>264000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D67:D130" si="6">2*A67*A67-3*A67+5</f>
+        <v>8519</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -8639,10 +8636,10 @@
       </c>
       <c r="D68">
         <f t="shared" si="6"/>
-        <v>268000</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+        <v>8782</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -8656,10 +8653,10 @@
       </c>
       <c r="D69">
         <f t="shared" si="6"/>
-        <v>272000</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9049</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -8673,10 +8670,10 @@
       </c>
       <c r="D70">
         <f t="shared" si="6"/>
-        <v>276000</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -8690,10 +8687,10 @@
       </c>
       <c r="D71">
         <f t="shared" si="6"/>
-        <v>280000</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9595</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -8707,10 +8704,10 @@
       </c>
       <c r="D72">
         <f t="shared" si="6"/>
-        <v>284000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9874</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -8724,10 +8721,10 @@
       </c>
       <c r="D73">
         <f t="shared" si="6"/>
-        <v>288000</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -8741,10 +8738,10 @@
       </c>
       <c r="D74">
         <f t="shared" si="6"/>
-        <v>292000</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10444</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -8758,10 +8755,10 @@
       </c>
       <c r="D75">
         <f t="shared" si="6"/>
-        <v>296000</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+        <v>10735</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -8775,10 +8772,10 @@
       </c>
       <c r="D76">
         <f t="shared" si="6"/>
-        <v>300000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11030</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -8792,10 +8789,10 @@
       </c>
       <c r="D77">
         <f t="shared" si="6"/>
-        <v>304000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11329</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -8809,10 +8806,10 @@
       </c>
       <c r="D78">
         <f t="shared" si="6"/>
-        <v>308000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11632</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -8826,10 +8823,10 @@
       </c>
       <c r="D79">
         <f t="shared" si="6"/>
-        <v>312000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+        <v>11939</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -8843,10 +8840,10 @@
       </c>
       <c r="D80">
         <f t="shared" si="6"/>
-        <v>316000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -8860,10 +8857,10 @@
       </c>
       <c r="D81">
         <f t="shared" si="6"/>
-        <v>320000</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12565</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -8877,10 +8874,10 @@
       </c>
       <c r="D82">
         <f t="shared" si="6"/>
-        <v>324000</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+        <v>12884</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -8894,10 +8891,10 @@
       </c>
       <c r="D83">
         <f t="shared" si="6"/>
-        <v>328000</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -8911,10 +8908,10 @@
       </c>
       <c r="D84">
         <f t="shared" si="6"/>
-        <v>332000</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13534</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -8928,10 +8925,10 @@
       </c>
       <c r="D85">
         <f t="shared" si="6"/>
-        <v>336000</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+        <v>13865</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -8945,10 +8942,10 @@
       </c>
       <c r="D86">
         <f t="shared" si="6"/>
-        <v>340000</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14200</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -8962,10 +8959,10 @@
       </c>
       <c r="D87">
         <f t="shared" si="6"/>
-        <v>344000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -8979,10 +8976,10 @@
       </c>
       <c r="D88">
         <f t="shared" si="6"/>
-        <v>348000</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+        <v>14882</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -8996,10 +8993,10 @@
       </c>
       <c r="D89">
         <f t="shared" si="6"/>
-        <v>352000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15229</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -9013,10 +9010,10 @@
       </c>
       <c r="D90">
         <f t="shared" si="6"/>
-        <v>356000</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15580</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -9030,10 +9027,10 @@
       </c>
       <c r="D91">
         <f t="shared" si="6"/>
-        <v>360000</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+        <v>15935</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -9047,10 +9044,10 @@
       </c>
       <c r="D92">
         <f t="shared" si="6"/>
-        <v>364000</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -9064,10 +9061,10 @@
       </c>
       <c r="D93">
         <f t="shared" si="6"/>
-        <v>368000</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+        <v>16657</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -9081,10 +9078,10 @@
       </c>
       <c r="D94">
         <f t="shared" si="6"/>
-        <v>372000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17024</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -9098,10 +9095,10 @@
       </c>
       <c r="D95">
         <f t="shared" si="6"/>
-        <v>376000</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17395</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -9115,10 +9112,10 @@
       </c>
       <c r="D96">
         <f t="shared" si="6"/>
-        <v>380000</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17770</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -9132,10 +9129,10 @@
       </c>
       <c r="D97">
         <f t="shared" si="6"/>
-        <v>384000</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -9149,10 +9146,10 @@
       </c>
       <c r="D98">
         <f t="shared" si="6"/>
-        <v>388000</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18532</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -9166,10 +9163,10 @@
       </c>
       <c r="D99">
         <f t="shared" si="6"/>
-        <v>392000</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18919</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -9183,10 +9180,10 @@
       </c>
       <c r="D100">
         <f t="shared" si="6"/>
-        <v>396000</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19310</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -9200,10 +9197,10 @@
       </c>
       <c r="D101">
         <f t="shared" si="6"/>
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+        <v>19705</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -9217,10 +9214,10 @@
       </c>
       <c r="D102">
         <f t="shared" si="6"/>
-        <v>404000</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -9234,10 +9231,10 @@
       </c>
       <c r="D103">
         <f t="shared" si="6"/>
-        <v>408000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20507</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -9251,10 +9248,10 @@
       </c>
       <c r="D104">
         <f t="shared" si="6"/>
-        <v>412000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+        <v>20914</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -9268,10 +9265,10 @@
       </c>
       <c r="D105">
         <f t="shared" si="6"/>
-        <v>416000</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21325</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -9285,10 +9282,10 @@
       </c>
       <c r="D106">
         <f t="shared" si="6"/>
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+        <v>21740</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -9302,10 +9299,10 @@
       </c>
       <c r="D107">
         <f t="shared" si="6"/>
-        <v>424000</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22159</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -9319,10 +9316,10 @@
       </c>
       <c r="D108">
         <f t="shared" si="6"/>
-        <v>428000</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22582</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -9336,10 +9333,10 @@
       </c>
       <c r="D109">
         <f t="shared" si="6"/>
-        <v>432000</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23009</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -9353,10 +9350,10 @@
       </c>
       <c r="D110">
         <f t="shared" si="6"/>
-        <v>436000</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23440</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -9370,10 +9367,10 @@
       </c>
       <c r="D111">
         <f t="shared" si="6"/>
-        <v>440000</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+        <v>23875</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -9387,10 +9384,10 @@
       </c>
       <c r="D112">
         <f t="shared" si="6"/>
-        <v>444000</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24314</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -9404,10 +9401,10 @@
       </c>
       <c r="D113">
         <f t="shared" si="6"/>
-        <v>448000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+        <v>24757</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -9421,10 +9418,10 @@
       </c>
       <c r="D114">
         <f t="shared" si="6"/>
-        <v>452000</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25204</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -9438,10 +9435,10 @@
       </c>
       <c r="D115">
         <f t="shared" si="6"/>
-        <v>456000</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+        <v>25655</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -9455,10 +9452,10 @@
       </c>
       <c r="D116">
         <f t="shared" si="6"/>
-        <v>460000</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26110</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -9472,10 +9469,10 @@
       </c>
       <c r="D117">
         <f t="shared" si="6"/>
-        <v>464000</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+        <v>26569</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -9489,10 +9486,10 @@
       </c>
       <c r="D118">
         <f t="shared" si="6"/>
-        <v>468000</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27032</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -9506,10 +9503,10 @@
       </c>
       <c r="D119">
         <f t="shared" si="6"/>
-        <v>472000</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27499</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -9523,10 +9520,10 @@
       </c>
       <c r="D120">
         <f t="shared" si="6"/>
-        <v>476000</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+        <v>27970</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -9540,10 +9537,10 @@
       </c>
       <c r="D121">
         <f t="shared" si="6"/>
-        <v>480000</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28445</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -9557,10 +9554,10 @@
       </c>
       <c r="D122">
         <f t="shared" si="6"/>
-        <v>484000</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+        <v>28924</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -9574,10 +9571,10 @@
       </c>
       <c r="D123">
         <f t="shared" si="6"/>
-        <v>488000</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29407</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -9591,10 +9588,10 @@
       </c>
       <c r="D124">
         <f t="shared" si="6"/>
-        <v>492000</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29894</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -9608,10 +9605,10 @@
       </c>
       <c r="D125">
         <f t="shared" si="6"/>
-        <v>496000</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30385</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -9625,10 +9622,10 @@
       </c>
       <c r="D126">
         <f t="shared" si="6"/>
-        <v>500000</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+        <v>30880</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -9642,10 +9639,10 @@
       </c>
       <c r="D127">
         <f t="shared" si="6"/>
-        <v>504000</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31379</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -9659,10 +9656,10 @@
       </c>
       <c r="D128">
         <f t="shared" si="6"/>
-        <v>508000</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+        <v>31882</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -9676,10 +9673,10 @@
       </c>
       <c r="D129">
         <f t="shared" si="6"/>
-        <v>512000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32389</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -9693,10 +9690,10 @@
       </c>
       <c r="D130">
         <f t="shared" si="6"/>
-        <v>516000</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+        <v>32900</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -9709,11 +9706,11 @@
         <v>33209</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" si="9">4000*A131</f>
-        <v>520000</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D131:D194" si="9">2*A131*A131-3*A131+5</f>
+        <v>33415</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -9727,10 +9724,10 @@
       </c>
       <c r="D132">
         <f t="shared" si="9"/>
-        <v>524000</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+        <v>33934</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -9744,10 +9741,10 @@
       </c>
       <c r="D133">
         <f t="shared" si="9"/>
-        <v>528000</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34457</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -9761,10 +9758,10 @@
       </c>
       <c r="D134">
         <f t="shared" si="9"/>
-        <v>532000</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+        <v>34984</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -9778,10 +9775,10 @@
       </c>
       <c r="D135">
         <f t="shared" si="9"/>
-        <v>536000</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+        <v>35515</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -9795,10 +9792,10 @@
       </c>
       <c r="D136">
         <f t="shared" si="9"/>
-        <v>540000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36050</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -9812,10 +9809,10 @@
       </c>
       <c r="D137">
         <f t="shared" si="9"/>
-        <v>544000</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+        <v>36589</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -9829,10 +9826,10 @@
       </c>
       <c r="D138">
         <f t="shared" si="9"/>
-        <v>548000</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37132</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -9846,10 +9843,10 @@
       </c>
       <c r="D139">
         <f t="shared" si="9"/>
-        <v>552000</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+        <v>37679</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -9863,10 +9860,10 @@
       </c>
       <c r="D140">
         <f t="shared" si="9"/>
-        <v>556000</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38230</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -9880,10 +9877,10 @@
       </c>
       <c r="D141">
         <f t="shared" si="9"/>
-        <v>560000</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+        <v>38785</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -9897,10 +9894,10 @@
       </c>
       <c r="D142">
         <f t="shared" si="9"/>
-        <v>564000</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39344</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -9914,10 +9911,10 @@
       </c>
       <c r="D143">
         <f t="shared" si="9"/>
-        <v>568000</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+        <v>39907</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -9931,10 +9928,10 @@
       </c>
       <c r="D144">
         <f t="shared" si="9"/>
-        <v>572000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+        <v>40474</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -9948,10 +9945,10 @@
       </c>
       <c r="D145">
         <f t="shared" si="9"/>
-        <v>576000</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41045</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -9965,10 +9962,10 @@
       </c>
       <c r="D146">
         <f t="shared" si="9"/>
-        <v>580000</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+        <v>41620</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -9982,10 +9979,10 @@
       </c>
       <c r="D147">
         <f t="shared" si="9"/>
-        <v>584000</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42199</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -9999,10 +9996,10 @@
       </c>
       <c r="D148">
         <f t="shared" si="9"/>
-        <v>588000</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+        <v>42782</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -10016,10 +10013,10 @@
       </c>
       <c r="D149">
         <f t="shared" si="9"/>
-        <v>592000</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43369</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -10033,10 +10030,10 @@
       </c>
       <c r="D150">
         <f t="shared" si="9"/>
-        <v>596000</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+        <v>43960</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -10050,10 +10047,10 @@
       </c>
       <c r="D151">
         <f t="shared" si="9"/>
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+        <v>44555</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -10067,10 +10064,10 @@
       </c>
       <c r="D152">
         <f t="shared" si="9"/>
-        <v>604000</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45154</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -10084,10 +10081,10 @@
       </c>
       <c r="D153">
         <f t="shared" si="9"/>
-        <v>608000</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+        <v>45757</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -10101,10 +10098,10 @@
       </c>
       <c r="D154">
         <f t="shared" si="9"/>
-        <v>612000</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46364</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -10118,10 +10115,10 @@
       </c>
       <c r="D155">
         <f t="shared" si="9"/>
-        <v>616000</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+        <v>46975</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -10135,10 +10132,10 @@
       </c>
       <c r="D156">
         <f t="shared" si="9"/>
-        <v>620000</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+        <v>47590</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -10152,10 +10149,10 @@
       </c>
       <c r="D157">
         <f t="shared" si="9"/>
-        <v>624000</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48209</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -10169,10 +10166,10 @@
       </c>
       <c r="D158">
         <f t="shared" si="9"/>
-        <v>628000</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48832</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -10186,10 +10183,10 @@
       </c>
       <c r="D159">
         <f t="shared" si="9"/>
-        <v>632000</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49459</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -10203,10 +10200,10 @@
       </c>
       <c r="D160">
         <f t="shared" si="9"/>
-        <v>636000</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50090</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -10220,10 +10217,10 @@
       </c>
       <c r="D161">
         <f t="shared" si="9"/>
-        <v>640000</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50725</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -10237,10 +10234,10 @@
       </c>
       <c r="D162">
         <f t="shared" si="9"/>
-        <v>644000</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51364</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -10254,10 +10251,10 @@
       </c>
       <c r="D163">
         <f t="shared" si="9"/>
-        <v>648000</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52007</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -10271,10 +10268,10 @@
       </c>
       <c r="D164">
         <f t="shared" si="9"/>
-        <v>652000</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52654</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -10288,10 +10285,10 @@
       </c>
       <c r="D165">
         <f t="shared" si="9"/>
-        <v>656000</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53305</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -10305,10 +10302,10 @@
       </c>
       <c r="D166">
         <f t="shared" si="9"/>
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53960</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -10322,10 +10319,10 @@
       </c>
       <c r="D167">
         <f t="shared" si="9"/>
-        <v>664000</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+        <v>54619</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -10339,10 +10336,10 @@
       </c>
       <c r="D168">
         <f t="shared" si="9"/>
-        <v>668000</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+        <v>55282</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -10356,10 +10353,10 @@
       </c>
       <c r="D169">
         <f t="shared" si="9"/>
-        <v>672000</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+        <v>55949</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -10373,10 +10370,10 @@
       </c>
       <c r="D170">
         <f t="shared" si="9"/>
-        <v>676000</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+        <v>56620</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -10390,10 +10387,10 @@
       </c>
       <c r="D171">
         <f t="shared" si="9"/>
-        <v>680000</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57295</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -10407,10 +10404,10 @@
       </c>
       <c r="D172">
         <f t="shared" si="9"/>
-        <v>684000</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+        <v>57974</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -10424,10 +10421,10 @@
       </c>
       <c r="D173">
         <f t="shared" si="9"/>
-        <v>688000</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+        <v>58657</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -10441,10 +10438,10 @@
       </c>
       <c r="D174">
         <f t="shared" si="9"/>
-        <v>692000</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+        <v>59344</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -10458,10 +10455,10 @@
       </c>
       <c r="D175">
         <f t="shared" si="9"/>
-        <v>696000</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60035</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -10475,10 +10472,10 @@
       </c>
       <c r="D176">
         <f t="shared" si="9"/>
-        <v>700000</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+        <v>60730</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -10492,10 +10489,10 @@
       </c>
       <c r="D177">
         <f t="shared" si="9"/>
-        <v>704000</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+        <v>61429</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -10509,10 +10506,10 @@
       </c>
       <c r="D178">
         <f t="shared" si="9"/>
-        <v>708000</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62132</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -10526,10 +10523,10 @@
       </c>
       <c r="D179">
         <f t="shared" si="9"/>
-        <v>712000</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62839</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -10543,10 +10540,10 @@
       </c>
       <c r="D180">
         <f t="shared" si="9"/>
-        <v>716000</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+        <v>63550</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -10560,10 +10557,10 @@
       </c>
       <c r="D181">
         <f t="shared" si="9"/>
-        <v>720000</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+        <v>64265</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -10577,10 +10574,10 @@
       </c>
       <c r="D182">
         <f t="shared" si="9"/>
-        <v>724000</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+        <v>64984</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -10594,10 +10591,10 @@
       </c>
       <c r="D183">
         <f t="shared" si="9"/>
-        <v>728000</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+        <v>65707</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -10611,10 +10608,10 @@
       </c>
       <c r="D184">
         <f t="shared" si="9"/>
-        <v>732000</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+        <v>66434</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -10628,10 +10625,10 @@
       </c>
       <c r="D185">
         <f t="shared" si="9"/>
-        <v>736000</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+        <v>67165</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -10645,10 +10642,10 @@
       </c>
       <c r="D186">
         <f t="shared" si="9"/>
-        <v>740000</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+        <v>67900</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -10662,10 +10659,10 @@
       </c>
       <c r="D187">
         <f t="shared" si="9"/>
-        <v>744000</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+        <v>68639</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -10679,10 +10676,10 @@
       </c>
       <c r="D188">
         <f t="shared" si="9"/>
-        <v>748000</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <v>69382</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -10696,10 +10693,10 @@
       </c>
       <c r="D189">
         <f t="shared" si="9"/>
-        <v>752000</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70129</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -10713,10 +10710,10 @@
       </c>
       <c r="D190">
         <f t="shared" si="9"/>
-        <v>756000</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+        <v>70880</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -10730,10 +10727,10 @@
       </c>
       <c r="D191">
         <f t="shared" si="9"/>
-        <v>760000</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+        <v>71635</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -10747,10 +10744,10 @@
       </c>
       <c r="D192">
         <f t="shared" si="9"/>
-        <v>764000</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+        <v>72394</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -10764,10 +10761,10 @@
       </c>
       <c r="D193">
         <f t="shared" si="9"/>
-        <v>768000</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73157</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -10781,10 +10778,10 @@
       </c>
       <c r="D194">
         <f t="shared" si="9"/>
-        <v>772000</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+        <v>73924</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -10797,11 +10794,11 @@
         <v>74361</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" si="12">4000*A195</f>
-        <v>776000</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D195:D258" si="12">2*A195*A195-3*A195+5</f>
+        <v>74695</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -10815,10 +10812,10 @@
       </c>
       <c r="D196">
         <f t="shared" si="12"/>
-        <v>780000</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+        <v>75470</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -10832,10 +10829,10 @@
       </c>
       <c r="D197">
         <f t="shared" si="12"/>
-        <v>784000</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+        <v>76249</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -10849,10 +10846,10 @@
       </c>
       <c r="D198">
         <f t="shared" si="12"/>
-        <v>788000</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77032</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -10866,10 +10863,10 @@
       </c>
       <c r="D199">
         <f t="shared" si="12"/>
-        <v>792000</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+        <v>77819</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -10883,10 +10880,10 @@
       </c>
       <c r="D200">
         <f t="shared" si="12"/>
-        <v>796000</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+        <v>78610</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -10900,10 +10897,10 @@
       </c>
       <c r="D201">
         <f t="shared" si="12"/>
-        <v>800000</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+        <v>79405</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -10917,10 +10914,10 @@
       </c>
       <c r="D202">
         <f t="shared" si="12"/>
-        <v>804000</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80204</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -10934,10 +10931,10 @@
       </c>
       <c r="D203">
         <f t="shared" si="12"/>
-        <v>808000</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81007</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -10951,10 +10948,10 @@
       </c>
       <c r="D204">
         <f t="shared" si="12"/>
-        <v>812000</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81814</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -10968,10 +10965,10 @@
       </c>
       <c r="D205">
         <f t="shared" si="12"/>
-        <v>816000</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+        <v>82625</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -10985,10 +10982,10 @@
       </c>
       <c r="D206">
         <f t="shared" si="12"/>
-        <v>820000</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+        <v>83440</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -11002,10 +10999,10 @@
       </c>
       <c r="D207">
         <f t="shared" si="12"/>
-        <v>824000</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+        <v>84259</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -11019,10 +11016,10 @@
       </c>
       <c r="D208">
         <f t="shared" si="12"/>
-        <v>828000</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85082</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -11036,10 +11033,10 @@
       </c>
       <c r="D209">
         <f t="shared" si="12"/>
-        <v>832000</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+        <v>85909</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -11053,10 +11050,10 @@
       </c>
       <c r="D210">
         <f t="shared" si="12"/>
-        <v>836000</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+        <v>86740</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -11070,10 +11067,10 @@
       </c>
       <c r="D211">
         <f t="shared" si="12"/>
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+        <v>87575</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -11087,10 +11084,10 @@
       </c>
       <c r="D212">
         <f t="shared" si="12"/>
-        <v>844000</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+        <v>88414</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -11104,10 +11101,10 @@
       </c>
       <c r="D213">
         <f t="shared" si="12"/>
-        <v>848000</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+        <v>89257</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -11121,10 +11118,10 @@
       </c>
       <c r="D214">
         <f t="shared" si="12"/>
-        <v>852000</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90104</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -11138,10 +11135,10 @@
       </c>
       <c r="D215">
         <f t="shared" si="12"/>
-        <v>856000</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+        <v>90955</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -11155,10 +11152,10 @@
       </c>
       <c r="D216">
         <f t="shared" si="12"/>
-        <v>860000</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+        <v>91810</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -11172,10 +11169,10 @@
       </c>
       <c r="D217">
         <f t="shared" si="12"/>
-        <v>864000</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+        <v>92669</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -11189,10 +11186,10 @@
       </c>
       <c r="D218">
         <f t="shared" si="12"/>
-        <v>868000</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+        <v>93532</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -11206,10 +11203,10 @@
       </c>
       <c r="D219">
         <f t="shared" si="12"/>
-        <v>872000</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+        <v>94399</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -11223,10 +11220,10 @@
       </c>
       <c r="D220">
         <f t="shared" si="12"/>
-        <v>876000</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+        <v>95270</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -11240,10 +11237,10 @@
       </c>
       <c r="D221">
         <f t="shared" si="12"/>
-        <v>880000</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+        <v>96145</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -11257,10 +11254,10 @@
       </c>
       <c r="D222">
         <f t="shared" si="12"/>
-        <v>884000</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97024</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -11274,10 +11271,10 @@
       </c>
       <c r="D223">
         <f t="shared" si="12"/>
-        <v>888000</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+        <v>97907</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -11291,10 +11288,10 @@
       </c>
       <c r="D224">
         <f t="shared" si="12"/>
-        <v>892000</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+        <v>98794</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -11308,10 +11305,10 @@
       </c>
       <c r="D225">
         <f t="shared" si="12"/>
-        <v>896000</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+        <v>99685</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -11325,10 +11322,10 @@
       </c>
       <c r="D226">
         <f t="shared" si="12"/>
-        <v>900000</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+        <v>100580</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -11342,10 +11339,10 @@
       </c>
       <c r="D227">
         <f t="shared" si="12"/>
-        <v>904000</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+        <v>101479</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -11359,10 +11356,10 @@
       </c>
       <c r="D228">
         <f t="shared" si="12"/>
-        <v>908000</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+        <v>102382</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -11376,10 +11373,10 @@
       </c>
       <c r="D229">
         <f t="shared" si="12"/>
-        <v>912000</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103289</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -11393,10 +11390,10 @@
       </c>
       <c r="D230">
         <f t="shared" si="12"/>
-        <v>916000</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+        <v>104200</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -11410,10 +11407,10 @@
       </c>
       <c r="D231">
         <f t="shared" si="12"/>
-        <v>920000</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+        <v>105115</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -11427,10 +11424,10 @@
       </c>
       <c r="D232">
         <f t="shared" si="12"/>
-        <v>924000</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+        <v>106034</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -11444,10 +11441,10 @@
       </c>
       <c r="D233">
         <f t="shared" si="12"/>
-        <v>928000</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+        <v>106957</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -11461,10 +11458,10 @@
       </c>
       <c r="D234">
         <f t="shared" si="12"/>
-        <v>932000</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+        <v>107884</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -11478,10 +11475,10 @@
       </c>
       <c r="D235">
         <f t="shared" si="12"/>
-        <v>936000</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+        <v>108815</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -11495,10 +11492,10 @@
       </c>
       <c r="D236">
         <f t="shared" si="12"/>
-        <v>940000</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+        <v>109750</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -11512,10 +11509,10 @@
       </c>
       <c r="D237">
         <f t="shared" si="12"/>
-        <v>944000</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+        <v>110689</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -11529,10 +11526,10 @@
       </c>
       <c r="D238">
         <f t="shared" si="12"/>
-        <v>948000</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+        <v>111632</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -11546,10 +11543,10 @@
       </c>
       <c r="D239">
         <f t="shared" si="12"/>
-        <v>952000</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+        <v>112579</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -11563,10 +11560,10 @@
       </c>
       <c r="D240">
         <f t="shared" si="12"/>
-        <v>956000</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+        <v>113530</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -11580,10 +11577,10 @@
       </c>
       <c r="D241">
         <f t="shared" si="12"/>
-        <v>960000</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+        <v>114485</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -11597,10 +11594,10 @@
       </c>
       <c r="D242">
         <f t="shared" si="12"/>
-        <v>964000</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+        <v>115444</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -11614,10 +11611,10 @@
       </c>
       <c r="D243">
         <f t="shared" si="12"/>
-        <v>968000</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+        <v>116407</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -11631,10 +11628,10 @@
       </c>
       <c r="D244">
         <f t="shared" si="12"/>
-        <v>972000</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+        <v>117374</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -11648,10 +11645,10 @@
       </c>
       <c r="D245">
         <f t="shared" si="12"/>
-        <v>976000</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+        <v>118345</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -11665,10 +11662,10 @@
       </c>
       <c r="D246">
         <f t="shared" si="12"/>
-        <v>980000</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+        <v>119320</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -11682,10 +11679,10 @@
       </c>
       <c r="D247">
         <f t="shared" si="12"/>
-        <v>984000</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+        <v>120299</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -11699,10 +11696,10 @@
       </c>
       <c r="D248">
         <f t="shared" si="12"/>
-        <v>988000</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+        <v>121282</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -11716,10 +11713,10 @@
       </c>
       <c r="D249">
         <f t="shared" si="12"/>
-        <v>992000</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+        <v>122269</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -11733,10 +11730,10 @@
       </c>
       <c r="D250">
         <f t="shared" si="12"/>
-        <v>996000</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+        <v>123260</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -11750,10 +11747,10 @@
       </c>
       <c r="D251">
         <f t="shared" si="12"/>
-        <v>1000000</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+        <v>124255</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -11767,10 +11764,10 @@
       </c>
       <c r="D252">
         <f t="shared" si="12"/>
-        <v>1004000</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+        <v>125254</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -11784,10 +11781,10 @@
       </c>
       <c r="D253">
         <f t="shared" si="12"/>
-        <v>1008000</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+        <v>126257</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -11801,10 +11798,10 @@
       </c>
       <c r="D254">
         <f t="shared" si="12"/>
-        <v>1012000</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+        <v>127264</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -11818,10 +11815,10 @@
       </c>
       <c r="D255">
         <f t="shared" si="12"/>
-        <v>1016000</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+        <v>128275</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -11835,10 +11832,10 @@
       </c>
       <c r="D256">
         <f t="shared" si="12"/>
-        <v>1020000</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+        <v>129290</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -11852,10 +11849,10 @@
       </c>
       <c r="D257">
         <f t="shared" si="12"/>
-        <v>1024000</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+        <v>130309</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -11869,10 +11866,10 @@
       </c>
       <c r="D258">
         <f t="shared" si="12"/>
-        <v>1028000</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+        <v>131332</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -11885,11 +11882,11 @@
         <v>131897</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" si="15">4000*A259</f>
-        <v>1032000</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D259:D322" si="15">2*A259*A259-3*A259+5</f>
+        <v>132359</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -11903,10 +11900,10 @@
       </c>
       <c r="D260">
         <f t="shared" si="15"/>
-        <v>1036000</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+        <v>133390</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -11920,10 +11917,10 @@
       </c>
       <c r="D261">
         <f t="shared" si="15"/>
-        <v>1040000</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+        <v>134425</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -11937,10 +11934,10 @@
       </c>
       <c r="D262">
         <f t="shared" si="15"/>
-        <v>1044000</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+        <v>135464</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -11954,10 +11951,10 @@
       </c>
       <c r="D263">
         <f t="shared" si="15"/>
-        <v>1048000</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+        <v>136507</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -11971,10 +11968,10 @@
       </c>
       <c r="D264">
         <f t="shared" si="15"/>
-        <v>1052000</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+        <v>137554</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -11988,10 +11985,10 @@
       </c>
       <c r="D265">
         <f t="shared" si="15"/>
-        <v>1056000</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+        <v>138605</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -12005,10 +12002,10 @@
       </c>
       <c r="D266">
         <f t="shared" si="15"/>
-        <v>1060000</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+        <v>139660</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -12022,10 +12019,10 @@
       </c>
       <c r="D267">
         <f t="shared" si="15"/>
-        <v>1064000</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+        <v>140719</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -12039,10 +12036,10 @@
       </c>
       <c r="D268">
         <f t="shared" si="15"/>
-        <v>1068000</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+        <v>141782</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -12056,10 +12053,10 @@
       </c>
       <c r="D269">
         <f t="shared" si="15"/>
-        <v>1072000</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142849</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -12073,10 +12070,10 @@
       </c>
       <c r="D270">
         <f t="shared" si="15"/>
-        <v>1076000</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+        <v>143920</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -12090,10 +12087,10 @@
       </c>
       <c r="D271">
         <f t="shared" si="15"/>
-        <v>1080000</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+        <v>144995</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -12107,10 +12104,10 @@
       </c>
       <c r="D272">
         <f t="shared" si="15"/>
-        <v>1084000</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+        <v>146074</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -12124,10 +12121,10 @@
       </c>
       <c r="D273">
         <f t="shared" si="15"/>
-        <v>1088000</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+        <v>147157</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -12141,10 +12138,10 @@
       </c>
       <c r="D274">
         <f t="shared" si="15"/>
-        <v>1092000</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+        <v>148244</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -12158,10 +12155,10 @@
       </c>
       <c r="D275">
         <f t="shared" si="15"/>
-        <v>1096000</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+        <v>149335</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -12175,10 +12172,10 @@
       </c>
       <c r="D276">
         <f t="shared" si="15"/>
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+        <v>150430</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -12192,10 +12189,10 @@
       </c>
       <c r="D277">
         <f t="shared" si="15"/>
-        <v>1104000</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+        <v>151529</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -12209,10 +12206,10 @@
       </c>
       <c r="D278">
         <f t="shared" si="15"/>
-        <v>1108000</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+        <v>152632</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -12226,10 +12223,10 @@
       </c>
       <c r="D279">
         <f t="shared" si="15"/>
-        <v>1112000</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+        <v>153739</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -12243,10 +12240,10 @@
       </c>
       <c r="D280">
         <f t="shared" si="15"/>
-        <v>1116000</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+        <v>154850</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -12260,10 +12257,10 @@
       </c>
       <c r="D281">
         <f t="shared" si="15"/>
-        <v>1120000</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+        <v>155965</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -12277,10 +12274,10 @@
       </c>
       <c r="D282">
         <f t="shared" si="15"/>
-        <v>1124000</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+        <v>157084</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -12294,10 +12291,10 @@
       </c>
       <c r="D283">
         <f t="shared" si="15"/>
-        <v>1128000</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+        <v>158207</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -12311,10 +12308,10 @@
       </c>
       <c r="D284">
         <f t="shared" si="15"/>
-        <v>1132000</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+        <v>159334</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -12328,10 +12325,10 @@
       </c>
       <c r="D285">
         <f t="shared" si="15"/>
-        <v>1136000</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+        <v>160465</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -12345,10 +12342,10 @@
       </c>
       <c r="D286">
         <f t="shared" si="15"/>
-        <v>1140000</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+        <v>161600</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -12362,10 +12359,10 @@
       </c>
       <c r="D287">
         <f t="shared" si="15"/>
-        <v>1144000</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+        <v>162739</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -12379,10 +12376,10 @@
       </c>
       <c r="D288">
         <f t="shared" si="15"/>
-        <v>1148000</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+        <v>163882</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -12396,10 +12393,10 @@
       </c>
       <c r="D289">
         <f t="shared" si="15"/>
-        <v>1152000</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+        <v>165029</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -12413,10 +12410,10 @@
       </c>
       <c r="D290">
         <f t="shared" si="15"/>
-        <v>1156000</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+        <v>166180</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -12430,10 +12427,10 @@
       </c>
       <c r="D291">
         <f t="shared" si="15"/>
-        <v>1160000</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+        <v>167335</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -12447,10 +12444,10 @@
       </c>
       <c r="D292">
         <f t="shared" si="15"/>
-        <v>1164000</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+        <v>168494</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -12464,10 +12461,10 @@
       </c>
       <c r="D293">
         <f t="shared" si="15"/>
-        <v>1168000</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+        <v>169657</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -12481,10 +12478,10 @@
       </c>
       <c r="D294">
         <f t="shared" si="15"/>
-        <v>1172000</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+        <v>170824</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -12498,10 +12495,10 @@
       </c>
       <c r="D295">
         <f t="shared" si="15"/>
-        <v>1176000</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+        <v>171995</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -12515,10 +12512,10 @@
       </c>
       <c r="D296">
         <f t="shared" si="15"/>
-        <v>1180000</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+        <v>173170</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -12532,10 +12529,10 @@
       </c>
       <c r="D297">
         <f t="shared" si="15"/>
-        <v>1184000</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+        <v>174349</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -12549,10 +12546,10 @@
       </c>
       <c r="D298">
         <f t="shared" si="15"/>
-        <v>1188000</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+        <v>175532</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -12566,10 +12563,10 @@
       </c>
       <c r="D299">
         <f t="shared" si="15"/>
-        <v>1192000</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+        <v>176719</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -12583,10 +12580,10 @@
       </c>
       <c r="D300">
         <f t="shared" si="15"/>
-        <v>1196000</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+        <v>177910</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -12600,10 +12597,10 @@
       </c>
       <c r="D301">
         <f t="shared" si="15"/>
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+        <v>179105</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -12617,10 +12614,10 @@
       </c>
       <c r="D302">
         <f t="shared" si="15"/>
-        <v>1204000</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+        <v>180304</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -12634,10 +12631,10 @@
       </c>
       <c r="D303">
         <f t="shared" si="15"/>
-        <v>1208000</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+        <v>181507</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -12651,10 +12648,10 @@
       </c>
       <c r="D304">
         <f t="shared" si="15"/>
-        <v>1212000</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+        <v>182714</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -12668,10 +12665,10 @@
       </c>
       <c r="D305">
         <f t="shared" si="15"/>
-        <v>1216000</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+        <v>183925</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -12685,10 +12682,10 @@
       </c>
       <c r="D306">
         <f t="shared" si="15"/>
-        <v>1220000</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+        <v>185140</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -12702,10 +12699,10 @@
       </c>
       <c r="D307">
         <f t="shared" si="15"/>
-        <v>1224000</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+        <v>186359</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -12719,10 +12716,10 @@
       </c>
       <c r="D308">
         <f t="shared" si="15"/>
-        <v>1228000</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+        <v>187582</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -12736,10 +12733,10 @@
       </c>
       <c r="D309">
         <f t="shared" si="15"/>
-        <v>1232000</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+        <v>188809</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -12753,10 +12750,10 @@
       </c>
       <c r="D310">
         <f t="shared" si="15"/>
-        <v>1236000</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+        <v>190040</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -12770,10 +12767,10 @@
       </c>
       <c r="D311">
         <f t="shared" si="15"/>
-        <v>1240000</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+        <v>191275</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -12787,10 +12784,10 @@
       </c>
       <c r="D312">
         <f t="shared" si="15"/>
-        <v>1244000</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+        <v>192514</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -12804,10 +12801,10 @@
       </c>
       <c r="D313">
         <f t="shared" si="15"/>
-        <v>1248000</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+        <v>193757</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -12821,10 +12818,10 @@
       </c>
       <c r="D314">
         <f t="shared" si="15"/>
-        <v>1252000</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+        <v>195004</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -12838,10 +12835,10 @@
       </c>
       <c r="D315">
         <f t="shared" si="15"/>
-        <v>1256000</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+        <v>196255</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -12855,10 +12852,10 @@
       </c>
       <c r="D316">
         <f t="shared" si="15"/>
-        <v>1260000</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+        <v>197510</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -12872,10 +12869,10 @@
       </c>
       <c r="D317">
         <f t="shared" si="15"/>
-        <v>1264000</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+        <v>198769</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -12889,10 +12886,10 @@
       </c>
       <c r="D318">
         <f t="shared" si="15"/>
-        <v>1268000</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+        <v>200032</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -12906,10 +12903,10 @@
       </c>
       <c r="D319">
         <f t="shared" si="15"/>
-        <v>1272000</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+        <v>201299</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -12923,10 +12920,10 @@
       </c>
       <c r="D320">
         <f t="shared" si="15"/>
-        <v>1276000</v>
-      </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+        <v>202570</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -12940,10 +12937,10 @@
       </c>
       <c r="D321">
         <f t="shared" si="15"/>
-        <v>1280000</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+        <v>203845</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -12957,10 +12954,10 @@
       </c>
       <c r="D322">
         <f t="shared" si="15"/>
-        <v>1284000</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+        <v>205124</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -12973,11 +12970,11 @@
         <v>205817</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" si="18">4000*A323</f>
-        <v>1288000</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D323:D386" si="18">2*A323*A323-3*A323+5</f>
+        <v>206407</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -12991,10 +12988,10 @@
       </c>
       <c r="D324">
         <f t="shared" si="18"/>
-        <v>1292000</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+        <v>207694</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -13008,10 +13005,10 @@
       </c>
       <c r="D325">
         <f t="shared" si="18"/>
-        <v>1296000</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+        <v>208985</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -13025,10 +13022,10 @@
       </c>
       <c r="D326">
         <f t="shared" si="18"/>
-        <v>1300000</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+        <v>210280</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -13042,10 +13039,10 @@
       </c>
       <c r="D327">
         <f t="shared" si="18"/>
-        <v>1304000</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+        <v>211579</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -13059,10 +13056,10 @@
       </c>
       <c r="D328">
         <f t="shared" si="18"/>
-        <v>1308000</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+        <v>212882</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -13076,10 +13073,10 @@
       </c>
       <c r="D329">
         <f t="shared" si="18"/>
-        <v>1312000</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+        <v>214189</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -13093,10 +13090,10 @@
       </c>
       <c r="D330">
         <f t="shared" si="18"/>
-        <v>1316000</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+        <v>215500</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -13110,10 +13107,10 @@
       </c>
       <c r="D331">
         <f t="shared" si="18"/>
-        <v>1320000</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+        <v>216815</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -13127,10 +13124,10 @@
       </c>
       <c r="D332">
         <f t="shared" si="18"/>
-        <v>1324000</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+        <v>218134</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -13144,10 +13141,10 @@
       </c>
       <c r="D333">
         <f t="shared" si="18"/>
-        <v>1328000</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+        <v>219457</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -13161,10 +13158,10 @@
       </c>
       <c r="D334">
         <f t="shared" si="18"/>
-        <v>1332000</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+        <v>220784</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -13178,10 +13175,10 @@
       </c>
       <c r="D335">
         <f t="shared" si="18"/>
-        <v>1336000</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+        <v>222115</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -13195,10 +13192,10 @@
       </c>
       <c r="D336">
         <f t="shared" si="18"/>
-        <v>1340000</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+        <v>223450</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -13212,10 +13209,10 @@
       </c>
       <c r="D337">
         <f t="shared" si="18"/>
-        <v>1344000</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+        <v>224789</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -13229,10 +13226,10 @@
       </c>
       <c r="D338">
         <f t="shared" si="18"/>
-        <v>1348000</v>
-      </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+        <v>226132</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -13246,10 +13243,10 @@
       </c>
       <c r="D339">
         <f t="shared" si="18"/>
-        <v>1352000</v>
-      </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+        <v>227479</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -13263,10 +13260,10 @@
       </c>
       <c r="D340">
         <f t="shared" si="18"/>
-        <v>1356000</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+        <v>228830</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -13280,10 +13277,10 @@
       </c>
       <c r="D341">
         <f t="shared" si="18"/>
-        <v>1360000</v>
-      </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+        <v>230185</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -13297,10 +13294,10 @@
       </c>
       <c r="D342">
         <f t="shared" si="18"/>
-        <v>1364000</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+        <v>231544</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -13314,10 +13311,10 @@
       </c>
       <c r="D343">
         <f t="shared" si="18"/>
-        <v>1368000</v>
-      </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+        <v>232907</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -13331,10 +13328,10 @@
       </c>
       <c r="D344">
         <f t="shared" si="18"/>
-        <v>1372000</v>
-      </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+        <v>234274</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -13348,10 +13345,10 @@
       </c>
       <c r="D345">
         <f t="shared" si="18"/>
-        <v>1376000</v>
-      </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+        <v>235645</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -13365,10 +13362,10 @@
       </c>
       <c r="D346">
         <f t="shared" si="18"/>
-        <v>1380000</v>
-      </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+        <v>237020</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -13382,10 +13379,10 @@
       </c>
       <c r="D347">
         <f t="shared" si="18"/>
-        <v>1384000</v>
-      </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+        <v>238399</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -13399,10 +13396,10 @@
       </c>
       <c r="D348">
         <f t="shared" si="18"/>
-        <v>1388000</v>
-      </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+        <v>239782</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -13416,10 +13413,10 @@
       </c>
       <c r="D349">
         <f t="shared" si="18"/>
-        <v>1392000</v>
-      </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+        <v>241169</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -13433,10 +13430,10 @@
       </c>
       <c r="D350">
         <f t="shared" si="18"/>
-        <v>1396000</v>
-      </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+        <v>242560</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -13450,10 +13447,10 @@
       </c>
       <c r="D351">
         <f t="shared" si="18"/>
-        <v>1400000</v>
-      </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+        <v>243955</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -13467,10 +13464,10 @@
       </c>
       <c r="D352">
         <f t="shared" si="18"/>
-        <v>1404000</v>
-      </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+        <v>245354</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -13484,10 +13481,10 @@
       </c>
       <c r="D353">
         <f t="shared" si="18"/>
-        <v>1408000</v>
-      </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+        <v>246757</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -13501,10 +13498,10 @@
       </c>
       <c r="D354">
         <f t="shared" si="18"/>
-        <v>1412000</v>
-      </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+        <v>248164</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -13518,10 +13515,10 @@
       </c>
       <c r="D355">
         <f t="shared" si="18"/>
-        <v>1416000</v>
-      </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+        <v>249575</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -13535,10 +13532,10 @@
       </c>
       <c r="D356">
         <f t="shared" si="18"/>
-        <v>1420000</v>
-      </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+        <v>250990</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -13552,10 +13549,10 @@
       </c>
       <c r="D357">
         <f t="shared" si="18"/>
-        <v>1424000</v>
-      </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+        <v>252409</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -13569,10 +13566,10 @@
       </c>
       <c r="D358">
         <f t="shared" si="18"/>
-        <v>1428000</v>
-      </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+        <v>253832</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -13586,10 +13583,10 @@
       </c>
       <c r="D359">
         <f t="shared" si="18"/>
-        <v>1432000</v>
-      </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+        <v>255259</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -13603,10 +13600,10 @@
       </c>
       <c r="D360">
         <f t="shared" si="18"/>
-        <v>1436000</v>
-      </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+        <v>256690</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -13620,10 +13617,10 @@
       </c>
       <c r="D361">
         <f t="shared" si="18"/>
-        <v>1440000</v>
-      </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+        <v>258125</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -13637,10 +13634,10 @@
       </c>
       <c r="D362">
         <f t="shared" si="18"/>
-        <v>1444000</v>
-      </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+        <v>259564</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -13654,10 +13651,10 @@
       </c>
       <c r="D363">
         <f t="shared" si="18"/>
-        <v>1448000</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+        <v>261007</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -13671,10 +13668,10 @@
       </c>
       <c r="D364">
         <f t="shared" si="18"/>
-        <v>1452000</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+        <v>262454</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -13688,10 +13685,10 @@
       </c>
       <c r="D365">
         <f t="shared" si="18"/>
-        <v>1456000</v>
-      </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+        <v>263905</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -13705,10 +13702,10 @@
       </c>
       <c r="D366">
         <f t="shared" si="18"/>
-        <v>1460000</v>
-      </c>
-    </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+        <v>265360</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -13722,10 +13719,10 @@
       </c>
       <c r="D367">
         <f t="shared" si="18"/>
-        <v>1464000</v>
-      </c>
-    </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+        <v>266819</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -13739,10 +13736,10 @@
       </c>
       <c r="D368">
         <f t="shared" si="18"/>
-        <v>1468000</v>
-      </c>
-    </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+        <v>268282</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -13756,10 +13753,10 @@
       </c>
       <c r="D369">
         <f t="shared" si="18"/>
-        <v>1472000</v>
-      </c>
-    </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+        <v>269749</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -13773,10 +13770,10 @@
       </c>
       <c r="D370">
         <f t="shared" si="18"/>
-        <v>1476000</v>
-      </c>
-    </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+        <v>271220</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -13790,10 +13787,10 @@
       </c>
       <c r="D371">
         <f t="shared" si="18"/>
-        <v>1480000</v>
-      </c>
-    </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+        <v>272695</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -13807,10 +13804,10 @@
       </c>
       <c r="D372">
         <f t="shared" si="18"/>
-        <v>1484000</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+        <v>274174</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -13824,10 +13821,10 @@
       </c>
       <c r="D373">
         <f t="shared" si="18"/>
-        <v>1488000</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+        <v>275657</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -13841,10 +13838,10 @@
       </c>
       <c r="D374">
         <f t="shared" si="18"/>
-        <v>1492000</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+        <v>277144</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -13858,10 +13855,10 @@
       </c>
       <c r="D375">
         <f t="shared" si="18"/>
-        <v>1496000</v>
-      </c>
-    </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+        <v>278635</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -13875,10 +13872,10 @@
       </c>
       <c r="D376">
         <f t="shared" si="18"/>
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+        <v>280130</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -13892,10 +13889,10 @@
       </c>
       <c r="D377">
         <f t="shared" si="18"/>
-        <v>1504000</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+        <v>281629</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -13909,10 +13906,10 @@
       </c>
       <c r="D378">
         <f t="shared" si="18"/>
-        <v>1508000</v>
-      </c>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+        <v>283132</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -13926,10 +13923,10 @@
       </c>
       <c r="D379">
         <f t="shared" si="18"/>
-        <v>1512000</v>
-      </c>
-    </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+        <v>284639</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -13943,10 +13940,10 @@
       </c>
       <c r="D380">
         <f t="shared" si="18"/>
-        <v>1516000</v>
-      </c>
-    </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+        <v>286150</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -13960,10 +13957,10 @@
       </c>
       <c r="D381">
         <f t="shared" si="18"/>
-        <v>1520000</v>
-      </c>
-    </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+        <v>287665</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -13977,10 +13974,10 @@
       </c>
       <c r="D382">
         <f t="shared" si="18"/>
-        <v>1524000</v>
-      </c>
-    </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+        <v>289184</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -13994,10 +13991,10 @@
       </c>
       <c r="D383">
         <f t="shared" si="18"/>
-        <v>1528000</v>
-      </c>
-    </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+        <v>290707</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -14011,10 +14008,10 @@
       </c>
       <c r="D384">
         <f t="shared" si="18"/>
-        <v>1532000</v>
-      </c>
-    </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+        <v>292234</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -14028,10 +14025,10 @@
       </c>
       <c r="D385">
         <f t="shared" si="18"/>
-        <v>1536000</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+        <v>293765</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -14045,10 +14042,10 @@
       </c>
       <c r="D386">
         <f t="shared" si="18"/>
-        <v>1540000</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+        <v>295300</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -14061,11 +14058,11 @@
         <v>296121</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" si="21">4000*A387</f>
-        <v>1544000</v>
-      </c>
-    </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D387:D450" si="21">2*A387*A387-3*A387+5</f>
+        <v>296839</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -14079,10 +14076,10 @@
       </c>
       <c r="D388">
         <f t="shared" si="21"/>
-        <v>1548000</v>
-      </c>
-    </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+        <v>298382</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -14096,10 +14093,10 @@
       </c>
       <c r="D389">
         <f t="shared" si="21"/>
-        <v>1552000</v>
-      </c>
-    </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+        <v>299929</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -14113,10 +14110,10 @@
       </c>
       <c r="D390">
         <f t="shared" si="21"/>
-        <v>1556000</v>
-      </c>
-    </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+        <v>301480</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -14130,10 +14127,10 @@
       </c>
       <c r="D391">
         <f t="shared" si="21"/>
-        <v>1560000</v>
-      </c>
-    </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+        <v>303035</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -14147,10 +14144,10 @@
       </c>
       <c r="D392">
         <f t="shared" si="21"/>
-        <v>1564000</v>
-      </c>
-    </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+        <v>304594</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -14164,10 +14161,10 @@
       </c>
       <c r="D393">
         <f t="shared" si="21"/>
-        <v>1568000</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+        <v>306157</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -14181,10 +14178,10 @@
       </c>
       <c r="D394">
         <f t="shared" si="21"/>
-        <v>1572000</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+        <v>307724</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -14198,10 +14195,10 @@
       </c>
       <c r="D395">
         <f t="shared" si="21"/>
-        <v>1576000</v>
-      </c>
-    </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+        <v>309295</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -14215,10 +14212,10 @@
       </c>
       <c r="D396">
         <f t="shared" si="21"/>
-        <v>1580000</v>
-      </c>
-    </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+        <v>310870</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -14232,10 +14229,10 @@
       </c>
       <c r="D397">
         <f t="shared" si="21"/>
-        <v>1584000</v>
-      </c>
-    </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+        <v>312449</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -14249,10 +14246,10 @@
       </c>
       <c r="D398">
         <f t="shared" si="21"/>
-        <v>1588000</v>
-      </c>
-    </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+        <v>314032</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -14266,10 +14263,10 @@
       </c>
       <c r="D399">
         <f t="shared" si="21"/>
-        <v>1592000</v>
-      </c>
-    </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+        <v>315619</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -14283,10 +14280,10 @@
       </c>
       <c r="D400">
         <f t="shared" si="21"/>
-        <v>1596000</v>
-      </c>
-    </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+        <v>317210</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -14300,10 +14297,10 @@
       </c>
       <c r="D401">
         <f t="shared" si="21"/>
-        <v>1600000</v>
-      </c>
-    </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+        <v>318805</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -14317,10 +14314,10 @@
       </c>
       <c r="D402">
         <f t="shared" si="21"/>
-        <v>1604000</v>
-      </c>
-    </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+        <v>320404</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -14334,10 +14331,10 @@
       </c>
       <c r="D403">
         <f t="shared" si="21"/>
-        <v>1608000</v>
-      </c>
-    </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+        <v>322007</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -14351,10 +14348,10 @@
       </c>
       <c r="D404">
         <f t="shared" si="21"/>
-        <v>1612000</v>
-      </c>
-    </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+        <v>323614</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -14368,10 +14365,10 @@
       </c>
       <c r="D405">
         <f t="shared" si="21"/>
-        <v>1616000</v>
-      </c>
-    </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+        <v>325225</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -14385,10 +14382,10 @@
       </c>
       <c r="D406">
         <f t="shared" si="21"/>
-        <v>1620000</v>
-      </c>
-    </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+        <v>326840</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -14402,10 +14399,10 @@
       </c>
       <c r="D407">
         <f t="shared" si="21"/>
-        <v>1624000</v>
-      </c>
-    </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+        <v>328459</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -14419,10 +14416,10 @@
       </c>
       <c r="D408">
         <f t="shared" si="21"/>
-        <v>1628000</v>
-      </c>
-    </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+        <v>330082</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -14436,10 +14433,10 @@
       </c>
       <c r="D409">
         <f t="shared" si="21"/>
-        <v>1632000</v>
-      </c>
-    </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+        <v>331709</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -14453,10 +14450,10 @@
       </c>
       <c r="D410">
         <f t="shared" si="21"/>
-        <v>1636000</v>
-      </c>
-    </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+        <v>333340</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -14470,10 +14467,10 @@
       </c>
       <c r="D411">
         <f t="shared" si="21"/>
-        <v>1640000</v>
-      </c>
-    </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+        <v>334975</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -14487,10 +14484,10 @@
       </c>
       <c r="D412">
         <f t="shared" si="21"/>
-        <v>1644000</v>
-      </c>
-    </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+        <v>336614</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -14504,10 +14501,10 @@
       </c>
       <c r="D413">
         <f t="shared" si="21"/>
-        <v>1648000</v>
-      </c>
-    </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+        <v>338257</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -14521,10 +14518,10 @@
       </c>
       <c r="D414">
         <f t="shared" si="21"/>
-        <v>1652000</v>
-      </c>
-    </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+        <v>339904</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -14538,10 +14535,10 @@
       </c>
       <c r="D415">
         <f t="shared" si="21"/>
-        <v>1656000</v>
-      </c>
-    </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+        <v>341555</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -14555,10 +14552,10 @@
       </c>
       <c r="D416">
         <f t="shared" si="21"/>
-        <v>1660000</v>
-      </c>
-    </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+        <v>343210</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -14572,10 +14569,10 @@
       </c>
       <c r="D417">
         <f t="shared" si="21"/>
-        <v>1664000</v>
-      </c>
-    </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+        <v>344869</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -14589,10 +14586,10 @@
       </c>
       <c r="D418">
         <f t="shared" si="21"/>
-        <v>1668000</v>
-      </c>
-    </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+        <v>346532</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -14606,10 +14603,10 @@
       </c>
       <c r="D419">
         <f t="shared" si="21"/>
-        <v>1672000</v>
-      </c>
-    </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+        <v>348199</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -14623,10 +14620,10 @@
       </c>
       <c r="D420">
         <f t="shared" si="21"/>
-        <v>1676000</v>
-      </c>
-    </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+        <v>349870</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -14640,10 +14637,10 @@
       </c>
       <c r="D421">
         <f t="shared" si="21"/>
-        <v>1680000</v>
-      </c>
-    </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+        <v>351545</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -14657,10 +14654,10 @@
       </c>
       <c r="D422">
         <f t="shared" si="21"/>
-        <v>1684000</v>
-      </c>
-    </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+        <v>353224</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -14674,10 +14671,10 @@
       </c>
       <c r="D423">
         <f t="shared" si="21"/>
-        <v>1688000</v>
-      </c>
-    </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+        <v>354907</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -14691,10 +14688,10 @@
       </c>
       <c r="D424">
         <f t="shared" si="21"/>
-        <v>1692000</v>
-      </c>
-    </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+        <v>356594</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -14708,10 +14705,10 @@
       </c>
       <c r="D425">
         <f t="shared" si="21"/>
-        <v>1696000</v>
-      </c>
-    </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+        <v>358285</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -14725,10 +14722,10 @@
       </c>
       <c r="D426">
         <f t="shared" si="21"/>
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+        <v>359980</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -14742,10 +14739,10 @@
       </c>
       <c r="D427">
         <f t="shared" si="21"/>
-        <v>1704000</v>
-      </c>
-    </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+        <v>361679</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -14759,10 +14756,10 @@
       </c>
       <c r="D428">
         <f t="shared" si="21"/>
-        <v>1708000</v>
-      </c>
-    </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+        <v>363382</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -14776,10 +14773,10 @@
       </c>
       <c r="D429">
         <f t="shared" si="21"/>
-        <v>1712000</v>
-      </c>
-    </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+        <v>365089</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -14793,10 +14790,10 @@
       </c>
       <c r="D430">
         <f t="shared" si="21"/>
-        <v>1716000</v>
-      </c>
-    </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+        <v>366800</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -14810,10 +14807,10 @@
       </c>
       <c r="D431">
         <f t="shared" si="21"/>
-        <v>1720000</v>
-      </c>
-    </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+        <v>368515</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -14827,10 +14824,10 @@
       </c>
       <c r="D432">
         <f t="shared" si="21"/>
-        <v>1724000</v>
-      </c>
-    </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+        <v>370234</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -14844,10 +14841,10 @@
       </c>
       <c r="D433">
         <f t="shared" si="21"/>
-        <v>1728000</v>
-      </c>
-    </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+        <v>371957</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -14861,10 +14858,10 @@
       </c>
       <c r="D434">
         <f t="shared" si="21"/>
-        <v>1732000</v>
-      </c>
-    </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+        <v>373684</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -14878,10 +14875,10 @@
       </c>
       <c r="D435">
         <f t="shared" si="21"/>
-        <v>1736000</v>
-      </c>
-    </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+        <v>375415</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -14895,10 +14892,10 @@
       </c>
       <c r="D436">
         <f t="shared" si="21"/>
-        <v>1740000</v>
-      </c>
-    </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+        <v>377150</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -14912,10 +14909,10 @@
       </c>
       <c r="D437">
         <f t="shared" si="21"/>
-        <v>1744000</v>
-      </c>
-    </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+        <v>378889</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -14929,10 +14926,10 @@
       </c>
       <c r="D438">
         <f t="shared" si="21"/>
-        <v>1748000</v>
-      </c>
-    </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+        <v>380632</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -14946,10 +14943,10 @@
       </c>
       <c r="D439">
         <f t="shared" si="21"/>
-        <v>1752000</v>
-      </c>
-    </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+        <v>382379</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -14963,10 +14960,10 @@
       </c>
       <c r="D440">
         <f t="shared" si="21"/>
-        <v>1756000</v>
-      </c>
-    </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+        <v>384130</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -14980,10 +14977,10 @@
       </c>
       <c r="D441">
         <f t="shared" si="21"/>
-        <v>1760000</v>
-      </c>
-    </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+        <v>385885</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -14997,10 +14994,10 @@
       </c>
       <c r="D442">
         <f t="shared" si="21"/>
-        <v>1764000</v>
-      </c>
-    </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+        <v>387644</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -15014,10 +15011,10 @@
       </c>
       <c r="D443">
         <f t="shared" si="21"/>
-        <v>1768000</v>
-      </c>
-    </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+        <v>389407</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -15031,10 +15028,10 @@
       </c>
       <c r="D444">
         <f t="shared" si="21"/>
-        <v>1772000</v>
-      </c>
-    </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+        <v>391174</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -15048,10 +15045,10 @@
       </c>
       <c r="D445">
         <f t="shared" si="21"/>
-        <v>1776000</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+        <v>392945</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -15065,10 +15062,10 @@
       </c>
       <c r="D446">
         <f t="shared" si="21"/>
-        <v>1780000</v>
-      </c>
-    </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+        <v>394720</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -15082,10 +15079,10 @@
       </c>
       <c r="D447">
         <f t="shared" si="21"/>
-        <v>1784000</v>
-      </c>
-    </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+        <v>396499</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -15099,10 +15096,10 @@
       </c>
       <c r="D448">
         <f t="shared" si="21"/>
-        <v>1788000</v>
-      </c>
-    </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+        <v>398282</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -15116,10 +15113,10 @@
       </c>
       <c r="D449">
         <f t="shared" si="21"/>
-        <v>1792000</v>
-      </c>
-    </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+        <v>400069</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -15133,10 +15130,10 @@
       </c>
       <c r="D450">
         <f t="shared" si="21"/>
-        <v>1796000</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+        <v>401860</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -15149,11 +15146,11 @@
         <v>402809</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D513" si="24">4000*A451</f>
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+        <f t="shared" ref="D451:D513" si="24">2*A451*A451-3*A451+5</f>
+        <v>403655</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -15167,10 +15164,10 @@
       </c>
       <c r="D452">
         <f t="shared" si="24"/>
-        <v>1804000</v>
-      </c>
-    </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+        <v>405454</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -15184,10 +15181,10 @@
       </c>
       <c r="D453">
         <f t="shared" si="24"/>
-        <v>1808000</v>
-      </c>
-    </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+        <v>407257</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -15201,10 +15198,10 @@
       </c>
       <c r="D454">
         <f t="shared" si="24"/>
-        <v>1812000</v>
-      </c>
-    </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+        <v>409064</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -15218,10 +15215,10 @@
       </c>
       <c r="D455">
         <f t="shared" si="24"/>
-        <v>1816000</v>
-      </c>
-    </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+        <v>410875</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -15235,10 +15232,10 @@
       </c>
       <c r="D456">
         <f t="shared" si="24"/>
-        <v>1820000</v>
-      </c>
-    </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+        <v>412690</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -15252,10 +15249,10 @@
       </c>
       <c r="D457">
         <f t="shared" si="24"/>
-        <v>1824000</v>
-      </c>
-    </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+        <v>414509</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -15269,10 +15266,10 @@
       </c>
       <c r="D458">
         <f t="shared" si="24"/>
-        <v>1828000</v>
-      </c>
-    </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+        <v>416332</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -15286,10 +15283,10 @@
       </c>
       <c r="D459">
         <f t="shared" si="24"/>
-        <v>1832000</v>
-      </c>
-    </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+        <v>418159</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -15303,10 +15300,10 @@
       </c>
       <c r="D460">
         <f t="shared" si="24"/>
-        <v>1836000</v>
-      </c>
-    </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+        <v>419990</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -15320,10 +15317,10 @@
       </c>
       <c r="D461">
         <f t="shared" si="24"/>
-        <v>1840000</v>
-      </c>
-    </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+        <v>421825</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -15337,10 +15334,10 @@
       </c>
       <c r="D462">
         <f t="shared" si="24"/>
-        <v>1844000</v>
-      </c>
-    </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+        <v>423664</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -15354,10 +15351,10 @@
       </c>
       <c r="D463">
         <f t="shared" si="24"/>
-        <v>1848000</v>
-      </c>
-    </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+        <v>425507</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -15371,10 +15368,10 @@
       </c>
       <c r="D464">
         <f t="shared" si="24"/>
-        <v>1852000</v>
-      </c>
-    </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+        <v>427354</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -15388,10 +15385,10 @@
       </c>
       <c r="D465">
         <f t="shared" si="24"/>
-        <v>1856000</v>
-      </c>
-    </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+        <v>429205</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -15405,10 +15402,10 @@
       </c>
       <c r="D466">
         <f t="shared" si="24"/>
-        <v>1860000</v>
-      </c>
-    </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+        <v>431060</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -15422,10 +15419,10 @@
       </c>
       <c r="D467">
         <f t="shared" si="24"/>
-        <v>1864000</v>
-      </c>
-    </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+        <v>432919</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -15439,10 +15436,10 @@
       </c>
       <c r="D468">
         <f t="shared" si="24"/>
-        <v>1868000</v>
-      </c>
-    </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+        <v>434782</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -15456,10 +15453,10 @@
       </c>
       <c r="D469">
         <f t="shared" si="24"/>
-        <v>1872000</v>
-      </c>
-    </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+        <v>436649</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -15473,10 +15470,10 @@
       </c>
       <c r="D470">
         <f t="shared" si="24"/>
-        <v>1876000</v>
-      </c>
-    </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+        <v>438520</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -15490,10 +15487,10 @@
       </c>
       <c r="D471">
         <f t="shared" si="24"/>
-        <v>1880000</v>
-      </c>
-    </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+        <v>440395</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -15507,10 +15504,10 @@
       </c>
       <c r="D472">
         <f t="shared" si="24"/>
-        <v>1884000</v>
-      </c>
-    </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+        <v>442274</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -15524,10 +15521,10 @@
       </c>
       <c r="D473">
         <f t="shared" si="24"/>
-        <v>1888000</v>
-      </c>
-    </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+        <v>444157</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -15541,10 +15538,10 @@
       </c>
       <c r="D474">
         <f t="shared" si="24"/>
-        <v>1892000</v>
-      </c>
-    </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+        <v>446044</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -15558,10 +15555,10 @@
       </c>
       <c r="D475">
         <f t="shared" si="24"/>
-        <v>1896000</v>
-      </c>
-    </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+        <v>447935</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -15575,10 +15572,10 @@
       </c>
       <c r="D476">
         <f t="shared" si="24"/>
-        <v>1900000</v>
-      </c>
-    </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+        <v>449830</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -15592,10 +15589,10 @@
       </c>
       <c r="D477">
         <f t="shared" si="24"/>
-        <v>1904000</v>
-      </c>
-    </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+        <v>451729</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -15609,10 +15606,10 @@
       </c>
       <c r="D478">
         <f t="shared" si="24"/>
-        <v>1908000</v>
-      </c>
-    </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+        <v>453632</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -15626,10 +15623,10 @@
       </c>
       <c r="D479">
         <f t="shared" si="24"/>
-        <v>1912000</v>
-      </c>
-    </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+        <v>455539</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -15643,10 +15640,10 @@
       </c>
       <c r="D480">
         <f t="shared" si="24"/>
-        <v>1916000</v>
-      </c>
-    </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+        <v>457450</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -15660,10 +15657,10 @@
       </c>
       <c r="D481">
         <f t="shared" si="24"/>
-        <v>1920000</v>
-      </c>
-    </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+        <v>459365</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -15677,10 +15674,10 @@
       </c>
       <c r="D482">
         <f t="shared" si="24"/>
-        <v>1924000</v>
-      </c>
-    </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+        <v>461284</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -15694,10 +15691,10 @@
       </c>
       <c r="D483">
         <f t="shared" si="24"/>
-        <v>1928000</v>
-      </c>
-    </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+        <v>463207</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -15711,10 +15708,10 @@
       </c>
       <c r="D484">
         <f t="shared" si="24"/>
-        <v>1932000</v>
-      </c>
-    </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+        <v>465134</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -15728,10 +15725,10 @@
       </c>
       <c r="D485">
         <f t="shared" si="24"/>
-        <v>1936000</v>
-      </c>
-    </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+        <v>467065</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -15745,10 +15742,10 @@
       </c>
       <c r="D486">
         <f t="shared" si="24"/>
-        <v>1940000</v>
-      </c>
-    </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+        <v>469000</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -15762,10 +15759,10 @@
       </c>
       <c r="D487">
         <f t="shared" si="24"/>
-        <v>1944000</v>
-      </c>
-    </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+        <v>470939</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -15779,10 +15776,10 @@
       </c>
       <c r="D488">
         <f t="shared" si="24"/>
-        <v>1948000</v>
-      </c>
-    </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+        <v>472882</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -15796,10 +15793,10 @@
       </c>
       <c r="D489">
         <f t="shared" si="24"/>
-        <v>1952000</v>
-      </c>
-    </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+        <v>474829</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -15813,10 +15810,10 @@
       </c>
       <c r="D490">
         <f t="shared" si="24"/>
-        <v>1956000</v>
-      </c>
-    </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+        <v>476780</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -15830,10 +15827,10 @@
       </c>
       <c r="D491">
         <f t="shared" si="24"/>
-        <v>1960000</v>
-      </c>
-    </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+        <v>478735</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -15847,10 +15844,10 @@
       </c>
       <c r="D492">
         <f t="shared" si="24"/>
-        <v>1964000</v>
-      </c>
-    </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+        <v>480694</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -15864,10 +15861,10 @@
       </c>
       <c r="D493">
         <f t="shared" si="24"/>
-        <v>1968000</v>
-      </c>
-    </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+        <v>482657</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -15881,10 +15878,10 @@
       </c>
       <c r="D494">
         <f t="shared" si="24"/>
-        <v>1972000</v>
-      </c>
-    </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+        <v>484624</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -15898,10 +15895,10 @@
       </c>
       <c r="D495">
         <f t="shared" si="24"/>
-        <v>1976000</v>
-      </c>
-    </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+        <v>486595</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -15915,10 +15912,10 @@
       </c>
       <c r="D496">
         <f t="shared" si="24"/>
-        <v>1980000</v>
-      </c>
-    </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+        <v>488570</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -15932,10 +15929,10 @@
       </c>
       <c r="D497">
         <f t="shared" si="24"/>
-        <v>1984000</v>
-      </c>
-    </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+        <v>490549</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -15949,10 +15946,10 @@
       </c>
       <c r="D498">
         <f t="shared" si="24"/>
-        <v>1988000</v>
-      </c>
-    </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+        <v>492532</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -15966,10 +15963,10 @@
       </c>
       <c r="D499">
         <f t="shared" si="24"/>
-        <v>1992000</v>
-      </c>
-    </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+        <v>494519</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -15983,10 +15980,10 @@
       </c>
       <c r="D500">
         <f t="shared" si="24"/>
-        <v>1996000</v>
-      </c>
-    </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+        <v>496510</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -16000,10 +15997,10 @@
       </c>
       <c r="D501">
         <f t="shared" si="24"/>
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+        <v>498505</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -16017,10 +16014,10 @@
       </c>
       <c r="D502">
         <f t="shared" si="24"/>
-        <v>2004000</v>
-      </c>
-    </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+        <v>500504</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -16034,10 +16031,10 @@
       </c>
       <c r="D503">
         <f t="shared" si="24"/>
-        <v>2008000</v>
-      </c>
-    </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+        <v>502507</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -16051,10 +16048,10 @@
       </c>
       <c r="D504">
         <f t="shared" si="24"/>
-        <v>2012000</v>
-      </c>
-    </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+        <v>504514</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -16068,10 +16065,10 @@
       </c>
       <c r="D505">
         <f t="shared" si="24"/>
-        <v>2016000</v>
-      </c>
-    </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+        <v>506525</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -16085,10 +16082,10 @@
       </c>
       <c r="D506">
         <f t="shared" si="24"/>
-        <v>2020000</v>
-      </c>
-    </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+        <v>508540</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -16102,10 +16099,10 @@
       </c>
       <c r="D507">
         <f t="shared" si="24"/>
-        <v>2024000</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+        <v>510559</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -16119,10 +16116,10 @@
       </c>
       <c r="D508">
         <f t="shared" si="24"/>
-        <v>2028000</v>
-      </c>
-    </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+        <v>512582</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -16136,10 +16133,10 @@
       </c>
       <c r="D509">
         <f t="shared" si="24"/>
-        <v>2032000</v>
-      </c>
-    </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+        <v>514609</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -16153,10 +16150,10 @@
       </c>
       <c r="D510">
         <f t="shared" si="24"/>
-        <v>2036000</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+        <v>516640</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -16170,10 +16167,10 @@
       </c>
       <c r="D511">
         <f t="shared" si="24"/>
-        <v>2040000</v>
-      </c>
-    </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+        <v>518675</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -16187,10 +16184,10 @@
       </c>
       <c r="D512">
         <f t="shared" si="24"/>
-        <v>2044000</v>
-      </c>
-    </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+        <v>520714</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -16204,12 +16201,17 @@
       </c>
       <c r="D513">
         <f t="shared" si="24"/>
-        <v>2048000</v>
+        <v>522757</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>